--- a/Perk_data/data/weapons_perks.xlsx
+++ b/Perk_data/data/weapons_perks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pierre-Luc\Documents\GitHub\BattleBay_tool\Perk_data\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D31F10A3-0F0B-42EE-A4D1-8ED6D8C50516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F67517A-7853-4D31-907F-404733CB3287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{06533344-5EE5-44BB-AD98-C040D80C4596}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$225</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$229</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="136">
   <si>
     <t>Item</t>
   </si>
@@ -442,6 +442,9 @@
   </si>
   <si>
     <t>carronade</t>
+  </si>
+  <si>
+    <t>none</t>
   </si>
 </sst>
 </file>
@@ -642,7 +645,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -664,6 +667,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1178,11 +1184,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{743A64AC-5DCF-4F6E-ADBB-4FDAAA62D2C9}">
-  <dimension ref="A1:F225"/>
+  <dimension ref="A1:F229"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A199" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I211" sqref="I211"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E239" sqref="E239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2788,7 +2794,7 @@
       <c r="B94" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C94" s="3" t="s">
+      <c r="C94" s="8" t="s">
         <v>38</v>
       </c>
       <c r="D94" s="3" t="s">
@@ -2822,7 +2828,7 @@
       <c r="B96" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C96" s="3" t="s">
+      <c r="C96" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D96" s="3" t="s">
@@ -3740,17 +3746,17 @@
       </c>
     </row>
     <row r="150" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A150" s="13" t="s">
+      <c r="A150" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="B150" s="3" t="s">
+      <c r="B150" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C150" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D150" s="3" t="s">
-        <v>26</v>
+      <c r="C150" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D150" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="E150" s="4" t="s">
         <v>107</v>
@@ -3766,8 +3772,8 @@
       <c r="C151" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D151" s="9" t="s">
-        <v>28</v>
+      <c r="D151" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="E151" s="4" t="s">
         <v>107</v>
@@ -4697,17 +4703,17 @@
       </c>
     </row>
     <row r="206" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A206" s="13" t="s">
+      <c r="A206" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="B206" s="3" t="s">
+      <c r="B206" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C206" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D206" s="3" t="s">
-        <v>26</v>
+      <c r="C206" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D206" s="8" t="s">
+        <v>86</v>
       </c>
       <c r="E206" s="5" t="s">
         <v>108</v>
@@ -4731,17 +4737,17 @@
       </c>
     </row>
     <row r="208" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A208" s="13" t="s">
+      <c r="A208" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="B208" s="3" t="s">
+      <c r="B208" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C208" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D208" s="3" t="s">
-        <v>26</v>
+      <c r="C208" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D208" s="8" t="s">
+        <v>86</v>
       </c>
       <c r="E208" s="5" t="s">
         <v>108</v>
@@ -5037,8 +5043,52 @@
         <v>108</v>
       </c>
     </row>
+    <row r="226" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A226" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="B226" s="12"/>
+      <c r="C226" s="12"/>
+      <c r="D226" s="12"/>
+      <c r="E226" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A227" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="B227" s="12"/>
+      <c r="C227" s="12"/>
+      <c r="D227" s="12"/>
+      <c r="E227" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A228" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="B228" s="12"/>
+      <c r="C228" s="12"/>
+      <c r="D228" s="12"/>
+      <c r="E228" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A229" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="B229" s="12"/>
+      <c r="C229" s="12"/>
+      <c r="D229" s="12"/>
+      <c r="E229" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E225" xr:uid="{743A64AC-5DCF-4F6E-ADBB-4FDAAA62D2C9}"/>
+  <autoFilter ref="A1:E229" xr:uid="{743A64AC-5DCF-4F6E-ADBB-4FDAAA62D2C9}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/Perk_data/data/weapons_perks.xlsx
+++ b/Perk_data/data/weapons_perks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pierre-Luc\Documents\GitHub\BattleBay_tool\Perk_data\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F67517A-7853-4D31-907F-404733CB3287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{775D547D-7D01-4AE5-9736-998ADDE90D4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{06533344-5EE5-44BB-AD98-C040D80C4596}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{06533344-5EE5-44BB-AD98-C040D80C4596}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,12 +45,6 @@
     <t>Perk</t>
   </si>
   <si>
-    <t>1st Bonus</t>
-  </si>
-  <si>
-    <t>2nd Bonus</t>
-  </si>
-  <si>
     <t>Rarity</t>
   </si>
   <si>
@@ -111,72 +105,6 @@
     <t>"Reach"_Damage_Frozen</t>
   </si>
   <si>
-    <t>12% FROST_DAMAGE</t>
-  </si>
-  <si>
-    <t>10% FROST_DAMAGE</t>
-  </si>
-  <si>
-    <t>12% RANGE</t>
-  </si>
-  <si>
-    <t>10% RANGE</t>
-  </si>
-  <si>
-    <t>8% COOL_DOWN</t>
-  </si>
-  <si>
-    <t>4% COOL_DOWN</t>
-  </si>
-  <si>
-    <t>6% COOL_DOWN</t>
-  </si>
-  <si>
-    <t>5% COOL_DOWN</t>
-  </si>
-  <si>
-    <t>1.5s DURATION</t>
-  </si>
-  <si>
-    <t>12% FIRE_DAMAGE</t>
-  </si>
-  <si>
-    <t>10% FIRE_DAMAGE</t>
-  </si>
-  <si>
-    <t>7.5% DAMAGE</t>
-  </si>
-  <si>
-    <t>6% DAMAGE</t>
-  </si>
-  <si>
-    <t>8% DAMAGE</t>
-  </si>
-  <si>
-    <t>10% DAMAGE</t>
-  </si>
-  <si>
-    <t>10% PROJECTILE_SPEED</t>
-  </si>
-  <si>
-    <t>13% PROJECTILE_SPEED</t>
-  </si>
-  <si>
-    <t>8% PROJECTILE_SPEED</t>
-  </si>
-  <si>
-    <t>20% CRITICAL_HIT_CHANCE</t>
-  </si>
-  <si>
-    <t>12% CRITICAL_HIT_CHANCE</t>
-  </si>
-  <si>
-    <t>4.5% CRITICAL_HIT_CHANCE</t>
-  </si>
-  <si>
-    <t>9 DAMAGE</t>
-  </si>
-  <si>
     <t>"Quickshot"_Fire_Duration</t>
   </si>
   <si>
@@ -258,102 +186,6 @@
     <t>"Quickshot"_Missile_Damage</t>
   </si>
   <si>
-    <t>9% FROST_DAMAGE</t>
-  </si>
-  <si>
-    <t>1s DURATION</t>
-  </si>
-  <si>
-    <t>5% DAMAGE</t>
-  </si>
-  <si>
-    <t>8% RANGE</t>
-  </si>
-  <si>
-    <t>8% FIRE_DAMAGE</t>
-  </si>
-  <si>
-    <t>2% CRITICAL_HIT_CHANCE</t>
-  </si>
-  <si>
-    <t>9% FIRE_DAMAGE</t>
-  </si>
-  <si>
-    <t>3% COOL_DOWN</t>
-  </si>
-  <si>
-    <t>5% PROJECTILE_SPEED</t>
-  </si>
-  <si>
-    <t>0.5s DURATION</t>
-  </si>
-  <si>
-    <t>15% CRITICAL_HIT_CHANCE</t>
-  </si>
-  <si>
-    <t>2% COOL_DOWN</t>
-  </si>
-  <si>
-    <t>3% DAMAGE</t>
-  </si>
-  <si>
-    <t>5% RANGE</t>
-  </si>
-  <si>
-    <t>2.5% DAMAGE</t>
-  </si>
-  <si>
-    <t>9% CRITICAL_HIT_CHANCE</t>
-  </si>
-  <si>
-    <t>6% CRITICAL_HIT_CHANCE</t>
-  </si>
-  <si>
-    <t>8% STUN_CHANCE</t>
-  </si>
-  <si>
-    <t>10% STUN_CHANCE</t>
-  </si>
-  <si>
-    <t>6 DAMAGE</t>
-  </si>
-  <si>
-    <t>3 DAMAGE</t>
-  </si>
-  <si>
-    <t>1.5% CRITICAL_HIT_CHANCE</t>
-  </si>
-  <si>
-    <t>3% PROJECTILE_SPEED</t>
-  </si>
-  <si>
-    <t>6% PROJECTILE_SPEED</t>
-  </si>
-  <si>
-    <t>5% STUN_CHANCE</t>
-  </si>
-  <si>
-    <t>4% FROST_DAMAGE</t>
-  </si>
-  <si>
-    <t>4.5% FROST_DAMAGE</t>
-  </si>
-  <si>
-    <t>6% STUN_CHANCE</t>
-  </si>
-  <si>
-    <t>7.5% PROJECTILE_SPEED</t>
-  </si>
-  <si>
-    <t>17.5% CRITICAL_HIT_CHANCE</t>
-  </si>
-  <si>
-    <t>4.5% FIRE_DAMAGE</t>
-  </si>
-  <si>
-    <t>12.5% CRITICAL_HIT_CHANCE</t>
-  </si>
-  <si>
     <t>legendary</t>
   </si>
   <si>
@@ -445,6 +277,174 @@
   </si>
   <si>
     <t>none</t>
+  </si>
+  <si>
+    <t>1st-Bonus</t>
+  </si>
+  <si>
+    <t>2nd-Bonus</t>
+  </si>
+  <si>
+    <t>7.5%-DAMAGE</t>
+  </si>
+  <si>
+    <t>12%-RANGE</t>
+  </si>
+  <si>
+    <t>10%-RANGE</t>
+  </si>
+  <si>
+    <t>8%-COOL_DOWN</t>
+  </si>
+  <si>
+    <t>12%-FROST_DAMAGE</t>
+  </si>
+  <si>
+    <t>1.5-DURATION</t>
+  </si>
+  <si>
+    <t>8%-DAMAGE</t>
+  </si>
+  <si>
+    <t>13%-PROJECTILE_SPEED</t>
+  </si>
+  <si>
+    <t>10%-PROJECTILE_SPEED</t>
+  </si>
+  <si>
+    <t>6%-DAMAGE</t>
+  </si>
+  <si>
+    <t>8%-PROJECTILE_SPEED</t>
+  </si>
+  <si>
+    <t>12%-FIRE_DAMAGE</t>
+  </si>
+  <si>
+    <t>4%-COOL_DOWN</t>
+  </si>
+  <si>
+    <t>4.5%-CRITICAL_HIT_CHANCE</t>
+  </si>
+  <si>
+    <t>10%-STUN_CHANCE</t>
+  </si>
+  <si>
+    <t>10%-FROST_DAMAGE</t>
+  </si>
+  <si>
+    <t>6%-COOL_DOWN</t>
+  </si>
+  <si>
+    <t>20%-CRITICAL_HIT_CHANCE</t>
+  </si>
+  <si>
+    <t>10%-DAMAGE</t>
+  </si>
+  <si>
+    <t>12%-CRITICAL_HIT_CHANCE</t>
+  </si>
+  <si>
+    <t>10%-FIRE_DAMAGE</t>
+  </si>
+  <si>
+    <t>5%-COOL_DOWN</t>
+  </si>
+  <si>
+    <t>9-DAMAGE</t>
+  </si>
+  <si>
+    <t>8%-STUN_CHANCE</t>
+  </si>
+  <si>
+    <t>7.5%-PROJECTILE_SPEED</t>
+  </si>
+  <si>
+    <t>17.5%-CRITICAL_HIT_CHANCE</t>
+  </si>
+  <si>
+    <t>8%-FIRE_DAMAGE</t>
+  </si>
+  <si>
+    <t>5%-DAMAGE</t>
+  </si>
+  <si>
+    <t>8%-RANGE</t>
+  </si>
+  <si>
+    <t>9%-FROST_DAMAGE</t>
+  </si>
+  <si>
+    <t>1-DURATION</t>
+  </si>
+  <si>
+    <t>6%-PROJECTILE_SPEED</t>
+  </si>
+  <si>
+    <t>3%-COOL_DOWN</t>
+  </si>
+  <si>
+    <t>9%-FIRE_DAMAGE</t>
+  </si>
+  <si>
+    <t>2%-CRITICAL_HIT_CHANCE</t>
+  </si>
+  <si>
+    <t>6%-STUN_CHANCE</t>
+  </si>
+  <si>
+    <t>15%-CRITICAL_HIT_CHANCE</t>
+  </si>
+  <si>
+    <t>9%-CRITICAL_HIT_CHANCE</t>
+  </si>
+  <si>
+    <t>6-DAMAGE</t>
+  </si>
+  <si>
+    <t>2.5%-DAMAGE</t>
+  </si>
+  <si>
+    <t>5%-RANGE</t>
+  </si>
+  <si>
+    <t>4.5%-FROST_DAMAGE</t>
+  </si>
+  <si>
+    <t>0.5-DURATION</t>
+  </si>
+  <si>
+    <t>2%-COOL_DOWN</t>
+  </si>
+  <si>
+    <t>3%-DAMAGE</t>
+  </si>
+  <si>
+    <t>5%-PROJECTILE_SPEED</t>
+  </si>
+  <si>
+    <t>3%-PROJECTILE_SPEED</t>
+  </si>
+  <si>
+    <t>4.5%-FIRE_DAMAGE</t>
+  </si>
+  <si>
+    <t>1.5%-CRITICAL_HIT_CHANCE</t>
+  </si>
+  <si>
+    <t>5%-STUN_CHANCE</t>
+  </si>
+  <si>
+    <t>4%-FROST_DAMAGE</t>
+  </si>
+  <si>
+    <t>12.5%-CRITICAL_HIT_CHANCE</t>
+  </si>
+  <si>
+    <t>6%-CRITICAL_HIT_CHANCE</t>
+  </si>
+  <si>
+    <t>3-DAMAGE</t>
   </si>
 </sst>
 </file>
@@ -1186,9 +1186,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{743A64AC-5DCF-4F6E-ADBB-4FDAAA62D2C9}">
   <dimension ref="A1:F229"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E239" sqref="E239"/>
+    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1208,3883 +1208,3883 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
-        <v>109</v>
+        <v>53</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
-        <v>109</v>
+        <v>53</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
-        <v>109</v>
+        <v>53</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
-        <v>110</v>
+        <v>54</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
-        <v>110</v>
+        <v>54</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
-        <v>111</v>
+        <v>55</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
-        <v>112</v>
+        <v>56</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
-        <v>113</v>
+        <v>57</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
-        <v>113</v>
+        <v>57</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
-        <v>114</v>
+        <v>58</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="12" t="s">
-        <v>115</v>
+        <v>59</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="12" t="s">
-        <v>116</v>
+        <v>60</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="12" t="s">
-        <v>116</v>
+        <v>60</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="12" t="s">
-        <v>116</v>
+        <v>60</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="12" t="s">
-        <v>117</v>
+        <v>61</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="12" t="s">
-        <v>118</v>
+        <v>62</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="12" t="s">
-        <v>119</v>
+        <v>63</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="12" t="s">
-        <v>120</v>
+        <v>64</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="12" t="s">
-        <v>121</v>
+        <v>65</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="12" t="s">
-        <v>121</v>
+        <v>65</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="12" t="s">
-        <v>122</v>
+        <v>66</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="12" t="s">
-        <v>122</v>
+        <v>66</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="12" t="s">
-        <v>122</v>
+        <v>66</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="12" t="s">
-        <v>123</v>
+        <v>67</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="12" t="s">
-        <v>124</v>
+        <v>68</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
       <c r="F26" s="10"/>
     </row>
     <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="12" t="s">
-        <v>124</v>
+        <v>68</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
       <c r="F27" s="10"/>
     </row>
     <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="12" t="s">
-        <v>124</v>
+        <v>68</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="12" t="s">
-        <v>125</v>
+        <v>69</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="12" t="s">
-        <v>126</v>
+        <v>70</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="12" t="s">
-        <v>127</v>
+        <v>71</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="12" t="s">
-        <v>127</v>
+        <v>71</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="12" t="s">
-        <v>128</v>
+        <v>72</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="12" t="s">
-        <v>128</v>
+        <v>72</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="12" t="s">
-        <v>129</v>
+        <v>73</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="12" t="s">
-        <v>117</v>
+        <v>61</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="12" t="s">
-        <v>130</v>
+        <v>74</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="12" t="s">
-        <v>131</v>
+        <v>75</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="12" t="s">
-        <v>131</v>
+        <v>75</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="12" t="s">
-        <v>131</v>
+        <v>75</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="12" t="s">
-        <v>115</v>
+        <v>59</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="12" t="s">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="12" t="s">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="12" t="s">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="12" t="s">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="12" t="s">
-        <v>123</v>
+        <v>67</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="12" t="s">
-        <v>114</v>
+        <v>58</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="12" t="s">
-        <v>122</v>
+        <v>66</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>34</v>
+        <v>102</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="12" t="s">
-        <v>129</v>
+        <v>73</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>31</v>
+        <v>103</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="12" t="s">
-        <v>133</v>
+        <v>77</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="12" t="s">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="12" t="s">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="12" t="s">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="12" t="s">
-        <v>129</v>
+        <v>73</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="12" t="s">
-        <v>118</v>
+        <v>62</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="12" t="s">
-        <v>114</v>
+        <v>58</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="12" t="s">
-        <v>123</v>
+        <v>67</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="12" t="s">
-        <v>109</v>
+        <v>53</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>106</v>
+        <v>50</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="13" t="s">
-        <v>109</v>
+        <v>53</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>106</v>
+        <v>50</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="12" t="s">
-        <v>109</v>
+        <v>53</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>106</v>
+        <v>50</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="13" t="s">
-        <v>110</v>
+        <v>54</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>106</v>
+        <v>50</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="13" t="s">
-        <v>110</v>
+        <v>54</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>106</v>
+        <v>50</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="13" t="s">
-        <v>111</v>
+        <v>55</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>106</v>
+        <v>50</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="13" t="s">
-        <v>112</v>
+        <v>56</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>106</v>
+        <v>50</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="12" t="s">
-        <v>113</v>
+        <v>57</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>106</v>
+        <v>50</v>
       </c>
       <c r="F65" s="10"/>
     </row>
     <row r="66" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="12" t="s">
-        <v>113</v>
+        <v>57</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>106</v>
+        <v>50</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="12" t="s">
-        <v>114</v>
+        <v>58</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>106</v>
+        <v>50</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="12" t="s">
-        <v>115</v>
+        <v>59</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>106</v>
+        <v>50</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="13" t="s">
-        <v>116</v>
+        <v>60</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>106</v>
+        <v>50</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="13" t="s">
-        <v>116</v>
+        <v>60</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>106</v>
+        <v>50</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="12" t="s">
-        <v>116</v>
+        <v>60</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>106</v>
+        <v>50</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="13" t="s">
-        <v>117</v>
+        <v>61</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>106</v>
+        <v>50</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="12" t="s">
-        <v>118</v>
+        <v>62</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>106</v>
+        <v>50</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="12" t="s">
-        <v>119</v>
+        <v>63</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>106</v>
+        <v>50</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="13" t="s">
-        <v>120</v>
+        <v>64</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>106</v>
+        <v>50</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="13" t="s">
-        <v>121</v>
+        <v>65</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>106</v>
+        <v>50</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="12" t="s">
-        <v>121</v>
+        <v>65</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>106</v>
+        <v>50</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="12" t="s">
-        <v>122</v>
+        <v>66</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>106</v>
+        <v>50</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="12" t="s">
-        <v>122</v>
+        <v>66</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>106</v>
+        <v>50</v>
       </c>
       <c r="F79" s="10"/>
     </row>
     <row r="80" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="12" t="s">
-        <v>122</v>
+        <v>66</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>106</v>
+        <v>50</v>
       </c>
       <c r="F80" s="10"/>
     </row>
     <row r="81" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="13" t="s">
-        <v>123</v>
+        <v>67</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>106</v>
+        <v>50</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="12" t="s">
-        <v>124</v>
+        <v>68</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>106</v>
+        <v>50</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="12" t="s">
-        <v>124</v>
+        <v>68</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>106</v>
+        <v>50</v>
       </c>
       <c r="F83" s="10"/>
     </row>
     <row r="84" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="13" t="s">
-        <v>124</v>
+        <v>68</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>106</v>
+        <v>50</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="13" t="s">
-        <v>125</v>
+        <v>69</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>106</v>
+        <v>50</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="12" t="s">
-        <v>126</v>
+        <v>70</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>106</v>
+        <v>50</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="12" t="s">
-        <v>127</v>
+        <v>71</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>106</v>
+        <v>50</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="12" t="s">
-        <v>127</v>
+        <v>71</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>106</v>
+        <v>50</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="12" t="s">
-        <v>128</v>
+        <v>72</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>106</v>
+        <v>50</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="12" t="s">
-        <v>128</v>
+        <v>72</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>106</v>
+        <v>50</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="12" t="s">
-        <v>129</v>
+        <v>73</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>106</v>
+        <v>50</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="12" t="s">
-        <v>117</v>
+        <v>61</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>106</v>
+        <v>50</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="12" t="s">
-        <v>130</v>
+        <v>74</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>106</v>
+        <v>50</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="13" t="s">
-        <v>131</v>
+        <v>75</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>106</v>
+        <v>50</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="12" t="s">
-        <v>131</v>
+        <v>75</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>106</v>
+        <v>50</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="13" t="s">
-        <v>131</v>
+        <v>75</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>106</v>
+        <v>50</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="13" t="s">
-        <v>115</v>
+        <v>59</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>106</v>
+        <v>50</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="12" t="s">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>106</v>
+        <v>50</v>
       </c>
       <c r="F98" s="10"/>
     </row>
     <row r="99" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="13" t="s">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>106</v>
+        <v>50</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="12" t="s">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>106</v>
+        <v>50</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="12" t="s">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>106</v>
+        <v>50</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="13" t="s">
-        <v>123</v>
+        <v>67</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>106</v>
+        <v>50</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="13" t="s">
-        <v>114</v>
+        <v>58</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>106</v>
+        <v>50</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="12" t="s">
-        <v>122</v>
+        <v>66</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>106</v>
+        <v>50</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="13" t="s">
-        <v>129</v>
+        <v>73</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>31</v>
+        <v>103</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>106</v>
+        <v>50</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="13" t="s">
-        <v>133</v>
+        <v>77</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="E106" s="7" t="s">
-        <v>106</v>
+        <v>50</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="13" t="s">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>106</v>
+        <v>50</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="13" t="s">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="E108" s="7" t="s">
-        <v>106</v>
+        <v>50</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="12" t="s">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>106</v>
+        <v>50</v>
       </c>
       <c r="F109" s="10"/>
     </row>
     <row r="110" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="13" t="s">
-        <v>129</v>
+        <v>73</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>106</v>
+        <v>50</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="12" t="s">
-        <v>118</v>
+        <v>62</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="E111" s="7" t="s">
-        <v>106</v>
+        <v>50</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="13" t="s">
-        <v>114</v>
+        <v>58</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="E112" s="7" t="s">
-        <v>106</v>
+        <v>50</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="13" t="s">
-        <v>123</v>
+        <v>67</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="E113" s="7" t="s">
-        <v>106</v>
+        <v>50</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B114" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C114" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B114" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C114" s="8" t="s">
-        <v>75</v>
-      </c>
       <c r="D114" s="8" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>107</v>
+        <v>51</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" s="12" t="s">
-        <v>109</v>
+        <v>53</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>107</v>
+        <v>51</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" s="12" t="s">
-        <v>109</v>
+        <v>53</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>73</v>
+        <v>111</v>
       </c>
       <c r="D116" s="9" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>107</v>
+        <v>51</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="12" t="s">
-        <v>110</v>
+        <v>54</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>73</v>
+        <v>111</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>107</v>
+        <v>51</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="13" t="s">
-        <v>110</v>
+        <v>54</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>107</v>
+        <v>51</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="13" t="s">
-        <v>111</v>
+        <v>55</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>107</v>
+        <v>51</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="12" t="s">
-        <v>112</v>
+        <v>56</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>107</v>
+        <v>51</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="12" t="s">
-        <v>113</v>
+        <v>57</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>107</v>
+        <v>51</v>
       </c>
       <c r="F121" s="10"/>
     </row>
     <row r="122" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="12" t="s">
-        <v>113</v>
+        <v>57</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>107</v>
+        <v>51</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A123" s="13" t="s">
-        <v>114</v>
+        <v>58</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>107</v>
+        <v>51</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" s="12" t="s">
-        <v>115</v>
+        <v>59</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>107</v>
+        <v>51</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="13" t="s">
-        <v>116</v>
+        <v>60</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>107</v>
+        <v>51</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="13" t="s">
-        <v>116</v>
+        <v>60</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>107</v>
+        <v>51</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="12" t="s">
-        <v>116</v>
+        <v>60</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="D127" s="9" t="s">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>107</v>
+        <v>51</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="13" t="s">
-        <v>117</v>
+        <v>61</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>107</v>
+        <v>51</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A129" s="13" t="s">
-        <v>118</v>
+        <v>62</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>107</v>
+        <v>51</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" s="13" t="s">
-        <v>119</v>
+        <v>63</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>107</v>
+        <v>51</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="12" t="s">
-        <v>120</v>
+        <v>64</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>107</v>
+        <v>51</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" s="13" t="s">
-        <v>121</v>
+        <v>65</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>107</v>
+        <v>51</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" s="12" t="s">
-        <v>121</v>
+        <v>65</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>107</v>
+        <v>51</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="12" t="s">
-        <v>122</v>
+        <v>66</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>107</v>
+        <v>51</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="12" t="s">
-        <v>122</v>
+        <v>66</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>107</v>
+        <v>51</v>
       </c>
       <c r="F135" s="10"/>
     </row>
     <row r="136" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="12" t="s">
-        <v>122</v>
+        <v>66</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="D136" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>107</v>
+        <v>51</v>
       </c>
       <c r="F136" s="10"/>
     </row>
     <row r="137" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A137" s="13" t="s">
-        <v>123</v>
+        <v>67</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>107</v>
+        <v>51</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="12" t="s">
-        <v>124</v>
+        <v>68</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>107</v>
+        <v>51</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A139" s="13" t="s">
-        <v>124</v>
+        <v>68</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>107</v>
+        <v>51</v>
       </c>
       <c r="F139" s="10"/>
     </row>
     <row r="140" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A140" s="13" t="s">
-        <v>124</v>
+        <v>68</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>107</v>
+        <v>51</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" s="13" t="s">
-        <v>125</v>
+        <v>69</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>107</v>
+        <v>51</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A142" s="12" t="s">
-        <v>126</v>
+        <v>70</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>107</v>
+        <v>51</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" s="13" t="s">
-        <v>127</v>
+        <v>71</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>107</v>
+        <v>51</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="12" t="s">
-        <v>127</v>
+        <v>71</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="D144" s="8" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>107</v>
+        <v>51</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A145" s="12" t="s">
-        <v>128</v>
+        <v>72</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C145" s="8" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="D145" s="8" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>107</v>
+        <v>51</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A146" s="12" t="s">
-        <v>128</v>
+        <v>72</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="D146" s="8" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>107</v>
+        <v>51</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A147" s="12" t="s">
-        <v>129</v>
+        <v>73</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="C147" s="8" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="D147" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>107</v>
+        <v>51</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A148" s="12" t="s">
-        <v>117</v>
+        <v>61</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="D148" s="8" t="s">
-        <v>83</v>
+        <v>118</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>107</v>
+        <v>51</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A149" s="12" t="s">
-        <v>130</v>
+        <v>74</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="D149" s="8" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>107</v>
+        <v>51</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A150" s="15" t="s">
-        <v>131</v>
+        <v>75</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="D150" s="8" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="E150" s="4" t="s">
-        <v>107</v>
+        <v>51</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A151" s="12" t="s">
-        <v>131</v>
+        <v>75</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="D151" s="8" t="s">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="E151" s="4" t="s">
-        <v>107</v>
+        <v>51</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A152" s="12" t="s">
-        <v>131</v>
+        <v>75</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C152" s="8" t="s">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="D152" s="8" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="E152" s="4" t="s">
-        <v>107</v>
+        <v>51</v>
       </c>
     </row>
     <row r="153" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A153" s="12" t="s">
-        <v>115</v>
+        <v>59</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C153" s="8" t="s">
-        <v>73</v>
+        <v>111</v>
       </c>
       <c r="D153" s="8" t="s">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>107</v>
+        <v>51</v>
       </c>
     </row>
     <row r="154" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A154" s="12" t="s">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="C154" s="8" t="s">
-        <v>88</v>
+        <v>119</v>
       </c>
       <c r="D154" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>107</v>
+        <v>51</v>
       </c>
     </row>
     <row r="155" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A155" s="13" t="s">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>107</v>
+        <v>51</v>
       </c>
     </row>
     <row r="156" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A156" s="13" t="s">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="E156" s="4" t="s">
-        <v>107</v>
+        <v>51</v>
       </c>
     </row>
     <row r="157" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A157" s="12" t="s">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="C157" s="8" t="s">
-        <v>88</v>
+        <v>119</v>
       </c>
       <c r="D157" s="9" t="s">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>107</v>
+        <v>51</v>
       </c>
       <c r="F157" s="10"/>
     </row>
     <row r="158" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A158" s="13" t="s">
-        <v>123</v>
+        <v>67</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="E158" s="4" t="s">
-        <v>107</v>
+        <v>51</v>
       </c>
     </row>
     <row r="159" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A159" s="13" t="s">
-        <v>114</v>
+        <v>58</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="E159" s="4" t="s">
-        <v>107</v>
+        <v>51</v>
       </c>
     </row>
     <row r="160" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A160" s="13" t="s">
-        <v>122</v>
+        <v>66</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>34</v>
+        <v>102</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="E160" s="4" t="s">
-        <v>107</v>
+        <v>51</v>
       </c>
     </row>
     <row r="161" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A161" s="13" t="s">
-        <v>129</v>
+        <v>73</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>31</v>
+        <v>103</v>
       </c>
       <c r="E161" s="4" t="s">
-        <v>107</v>
+        <v>51</v>
       </c>
     </row>
     <row r="162" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A162" s="13" t="s">
-        <v>133</v>
+        <v>77</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="E162" s="4" t="s">
-        <v>107</v>
+        <v>51</v>
       </c>
     </row>
     <row r="163" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A163" s="13" t="s">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="E163" s="4" t="s">
-        <v>107</v>
+        <v>51</v>
       </c>
     </row>
     <row r="164" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A164" s="13" t="s">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="E164" s="4" t="s">
-        <v>107</v>
+        <v>51</v>
       </c>
     </row>
     <row r="165" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A165" s="12" t="s">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="B165" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C165" s="8" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="D165" s="8" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="E165" s="4" t="s">
-        <v>107</v>
+        <v>51</v>
       </c>
     </row>
     <row r="166" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A166" s="13" t="s">
-        <v>129</v>
+        <v>73</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="E166" s="4" t="s">
-        <v>107</v>
+        <v>51</v>
       </c>
     </row>
     <row r="167" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A167" s="12" t="s">
-        <v>118</v>
+        <v>62</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="C167" s="8" t="s">
-        <v>73</v>
+        <v>111</v>
       </c>
       <c r="D167" s="8" t="s">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="E167" s="4" t="s">
-        <v>107</v>
+        <v>51</v>
       </c>
     </row>
     <row r="168" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A168" s="12" t="s">
-        <v>114</v>
+        <v>58</v>
       </c>
       <c r="B168" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C168" s="8" t="s">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="D168" s="8" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E168" s="4" t="s">
-        <v>107</v>
+        <v>51</v>
       </c>
     </row>
     <row r="169" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A169" s="13" t="s">
-        <v>123</v>
+        <v>67</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="E169" s="4" t="s">
-        <v>107</v>
+        <v>51</v>
       </c>
     </row>
     <row r="170" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A170" s="12" t="s">
-        <v>109</v>
+        <v>53</v>
       </c>
       <c r="B170" s="8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C170" s="8" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="D170" s="8" t="s">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="E170" s="5" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
     </row>
     <row r="171" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A171" s="13" t="s">
-        <v>109</v>
+        <v>53</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="E171" s="5" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
     </row>
     <row r="172" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A172" s="12" t="s">
-        <v>109</v>
+        <v>53</v>
       </c>
       <c r="B172" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C172" s="8" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="D172" s="9" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="E172" s="5" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
     </row>
     <row r="173" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A173" s="13" t="s">
-        <v>110</v>
+        <v>54</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="E173" s="5" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
     </row>
     <row r="174" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A174" s="13" t="s">
-        <v>110</v>
+        <v>54</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="E174" s="5" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
     </row>
     <row r="175" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A175" s="13" t="s">
-        <v>111</v>
+        <v>55</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="E175" s="5" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
     </row>
     <row r="176" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A176" s="13" t="s">
-        <v>112</v>
+        <v>56</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="E176" s="5" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
     </row>
     <row r="177" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A177" s="12" t="s">
-        <v>113</v>
+        <v>57</v>
       </c>
       <c r="B177" s="8" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="C177" s="8" t="s">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="D177" s="8" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="E177" s="5" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
       <c r="F177" s="10"/>
     </row>
     <row r="178" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A178" s="12" t="s">
-        <v>113</v>
+        <v>57</v>
       </c>
       <c r="B178" s="8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C178" s="8" t="s">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="D178" s="8" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="E178" s="5" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
     </row>
     <row r="179" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A179" s="12" t="s">
-        <v>114</v>
+        <v>58</v>
       </c>
       <c r="B179" s="8" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="C179" s="8" t="s">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="D179" s="8" t="s">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="E179" s="5" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
     </row>
     <row r="180" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A180" s="13" t="s">
-        <v>115</v>
+        <v>59</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="E180" s="5" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
     </row>
     <row r="181" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A181" s="13" t="s">
-        <v>116</v>
+        <v>60</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="E181" s="5" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
     </row>
     <row r="182" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A182" s="13" t="s">
-        <v>116</v>
+        <v>60</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="E182" s="5" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
     </row>
     <row r="183" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A183" s="12" t="s">
-        <v>116</v>
+        <v>60</v>
       </c>
       <c r="B183" s="8" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="C183" s="8" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="D183" s="8" t="s">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="E183" s="5" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
     </row>
     <row r="184" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A184" s="12" t="s">
-        <v>117</v>
+        <v>61</v>
       </c>
       <c r="B184" s="8" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="C184" s="8" t="s">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="D184" s="8" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="E184" s="5" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
     </row>
     <row r="185" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A185" s="13" t="s">
-        <v>118</v>
+        <v>62</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="E185" s="5" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
     </row>
     <row r="186" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A186" s="13" t="s">
-        <v>119</v>
+        <v>63</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="E186" s="5" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
     </row>
     <row r="187" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A187" s="13" t="s">
-        <v>120</v>
+        <v>64</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="E187" s="5" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
     </row>
     <row r="188" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A188" s="13" t="s">
-        <v>121</v>
+        <v>65</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="E188" s="5" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
     </row>
     <row r="189" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A189" s="12" t="s">
-        <v>121</v>
+        <v>65</v>
       </c>
       <c r="B189" s="8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C189" s="8" t="s">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="D189" s="8" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="E189" s="5" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
     </row>
     <row r="190" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A190" s="12" t="s">
-        <v>122</v>
+        <v>66</v>
       </c>
       <c r="B190" s="8" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="C190" s="8" t="s">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="D190" s="9" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="E190" s="5" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
     </row>
     <row r="191" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A191" s="12" t="s">
-        <v>122</v>
+        <v>66</v>
       </c>
       <c r="B191" s="8" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="C191" s="8" t="s">
-        <v>94</v>
+        <v>130</v>
       </c>
       <c r="D191" s="9" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="E191" s="5" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
       <c r="F191" s="10"/>
     </row>
     <row r="192" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A192" s="12" t="s">
-        <v>122</v>
+        <v>66</v>
       </c>
       <c r="B192" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C192" s="8" t="s">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="D192" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="E192" s="5" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
       <c r="F192" s="10"/>
     </row>
     <row r="193" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A193" s="13" t="s">
-        <v>123</v>
+        <v>67</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="E193" s="5" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
     </row>
     <row r="194" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A194" s="12" t="s">
-        <v>124</v>
+        <v>68</v>
       </c>
       <c r="B194" s="8" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="C194" s="8" t="s">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="D194" s="8" t="s">
-        <v>97</v>
+        <v>131</v>
       </c>
       <c r="E194" s="5" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
     </row>
     <row r="195" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A195" s="12" t="s">
-        <v>124</v>
+        <v>68</v>
       </c>
       <c r="B195" s="8" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="C195" s="8" t="s">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="D195" s="8" t="s">
-        <v>97</v>
+        <v>131</v>
       </c>
       <c r="E195" s="5" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
       <c r="F195" s="10"/>
     </row>
     <row r="196" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A196" s="12" t="s">
-        <v>124</v>
+        <v>68</v>
       </c>
       <c r="B196" s="8" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="C196" s="8" t="s">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="D196" s="8" t="s">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="E196" s="5" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
     </row>
     <row r="197" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A197" s="12" t="s">
-        <v>125</v>
+        <v>69</v>
       </c>
       <c r="B197" s="8" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="C197" s="8" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="D197" s="8" t="s">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="E197" s="5" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
     </row>
     <row r="198" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A198" s="13" t="s">
-        <v>126</v>
+        <v>70</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="E198" s="5" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
     </row>
     <row r="199" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A199" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B199" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C199" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D199" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="B199" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C199" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="D199" s="8" t="s">
-        <v>81</v>
-      </c>
       <c r="E199" s="5" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
     </row>
     <row r="200" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A200" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B200" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C200" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="D200" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="B200" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C200" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D200" s="8" t="s">
-        <v>81</v>
-      </c>
       <c r="E200" s="5" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
     </row>
     <row r="201" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A201" s="12" t="s">
-        <v>128</v>
+        <v>72</v>
       </c>
       <c r="B201" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C201" s="8" t="s">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="D201" s="8" t="s">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="E201" s="5" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
     </row>
     <row r="202" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A202" s="12" t="s">
-        <v>128</v>
+        <v>72</v>
       </c>
       <c r="B202" s="8" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="C202" s="8" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="D202" s="8" t="s">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="E202" s="5" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
     </row>
     <row r="203" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A203" s="12" t="s">
-        <v>129</v>
+        <v>73</v>
       </c>
       <c r="B203" s="8" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="C203" s="8" t="s">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="D203" s="8" t="s">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="E203" s="5" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
     </row>
     <row r="204" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A204" s="12" t="s">
-        <v>117</v>
+        <v>61</v>
       </c>
       <c r="B204" s="8" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="C204" s="8" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="D204" s="8" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="E204" s="5" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
     </row>
     <row r="205" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A205" s="12" t="s">
-        <v>130</v>
+        <v>74</v>
       </c>
       <c r="B205" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C205" s="8" t="s">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="D205" s="8" t="s">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="E205" s="5" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
     </row>
     <row r="206" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A206" s="15" t="s">
-        <v>131</v>
+        <v>75</v>
       </c>
       <c r="B206" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C206" s="8" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="D206" s="8" t="s">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="E206" s="5" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
     </row>
     <row r="207" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A207" s="12" t="s">
-        <v>131</v>
+        <v>75</v>
       </c>
       <c r="B207" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C207" s="8" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="D207" s="8" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="E207" s="5" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
     </row>
     <row r="208" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A208" s="15" t="s">
-        <v>131</v>
+        <v>75</v>
       </c>
       <c r="B208" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C208" s="8" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="D208" s="8" t="s">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="E208" s="5" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
     </row>
     <row r="209" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A209" s="13" t="s">
-        <v>115</v>
+        <v>59</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="D209" s="3" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="E209" s="5" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
     </row>
     <row r="210" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A210" s="12" t="s">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c r="B210" s="8" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="C210" s="8" t="s">
-        <v>89</v>
+        <v>134</v>
       </c>
       <c r="D210" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="E210" s="5" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
     </row>
     <row r="211" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A211" s="13" t="s">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="D211" s="3" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="E211" s="5" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
     </row>
     <row r="212" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A212" s="14" t="s">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c r="B212" s="8" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="C212" s="8" t="s">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="D212" s="8" t="s">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="E212" s="5" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
     </row>
     <row r="213" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A213" s="12" t="s">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c r="B213" s="8" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="C213" s="8" t="s">
-        <v>89</v>
+        <v>134</v>
       </c>
       <c r="D213" s="8" t="s">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="E213" s="5" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
       <c r="F213" s="10"/>
     </row>
     <row r="214" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A214" s="13" t="s">
-        <v>123</v>
+        <v>67</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="D214" s="3" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="E214" s="5" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
     </row>
     <row r="215" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A215" s="12" t="s">
-        <v>114</v>
+        <v>58</v>
       </c>
       <c r="B215" s="8" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="C215" s="8" t="s">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="D215" s="8" t="s">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="E215" s="5" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
     </row>
     <row r="216" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A216" s="13" t="s">
-        <v>122</v>
+        <v>66</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>34</v>
+        <v>102</v>
       </c>
       <c r="D216" s="3" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="E216" s="5" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
     </row>
     <row r="217" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A217" s="13" t="s">
-        <v>129</v>
+        <v>73</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="D217" s="3" t="s">
-        <v>31</v>
+        <v>103</v>
       </c>
       <c r="E217" s="5" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
     </row>
     <row r="218" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A218" s="13" t="s">
-        <v>133</v>
+        <v>77</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="D218" s="3" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="E218" s="5" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
     </row>
     <row r="219" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A219" s="12" t="s">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="B219" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C219" s="8" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="D219" s="8" t="s">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="E219" s="5" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
     </row>
     <row r="220" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A220" s="12" t="s">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="B220" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C220" s="8" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="D220" s="8" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="E220" s="5" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
     </row>
     <row r="221" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A221" s="12" t="s">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="B221" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C221" s="8" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="D221" s="8" t="s">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="E221" s="5" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
     </row>
     <row r="222" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A222" s="13" t="s">
-        <v>129</v>
+        <v>73</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="D222" s="3" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="E222" s="5" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
     </row>
     <row r="223" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A223" s="13" t="s">
-        <v>118</v>
+        <v>62</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="D223" s="3" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="E223" s="5" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
     </row>
     <row r="224" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A224" s="12" t="s">
-        <v>114</v>
+        <v>58</v>
       </c>
       <c r="B224" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C224" s="9" t="s">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="D224" s="8" t="s">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="E224" s="5" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
     </row>
     <row r="225" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A225" s="12" t="s">
-        <v>123</v>
+        <v>67</v>
       </c>
       <c r="B225" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C225" s="8" t="s">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="D225" s="8" t="s">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="E225" s="5" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
     </row>
     <row r="226" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A226" s="12" t="s">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="B226" s="12"/>
       <c r="C226" s="12"/>
       <c r="D226" s="12"/>
       <c r="E226" s="5" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
     </row>
     <row r="227" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A227" s="12" t="s">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="B227" s="12"/>
       <c r="C227" s="12"/>
       <c r="D227" s="12"/>
       <c r="E227" s="4" t="s">
-        <v>107</v>
+        <v>51</v>
       </c>
     </row>
     <row r="228" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A228" s="12" t="s">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="B228" s="12"/>
       <c r="C228" s="12"/>
       <c r="D228" s="12"/>
       <c r="E228" s="7" t="s">
-        <v>106</v>
+        <v>50</v>
       </c>
     </row>
     <row r="229" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A229" s="12" t="s">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="B229" s="12"/>
       <c r="C229" s="12"/>
       <c r="D229" s="12"/>
       <c r="E229" s="6" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/Perk_data/data/weapons_perks.xlsx
+++ b/Perk_data/data/weapons_perks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pierre-Luc\Documents\GitHub\BattleBay_tool\Perk_data\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{775D547D-7D01-4AE5-9736-998ADDE90D4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7C7B9F1-DE58-4B8E-856F-F05B2D3BB42B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{06533344-5EE5-44BB-AD98-C040D80C4596}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{06533344-5EE5-44BB-AD98-C040D80C4596}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -261,9 +261,6 @@
     <t>all_missiles</t>
   </si>
   <si>
-    <t>cannon</t>
-  </si>
-  <si>
     <t>mines</t>
   </si>
   <si>
@@ -445,6 +442,9 @@
   </si>
   <si>
     <t>3-DAMAGE</t>
+  </si>
+  <si>
+    <t>standard_cannon</t>
   </si>
 </sst>
 </file>
@@ -1187,8 +1187,8 @@
   <dimension ref="A1:F229"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B236" sqref="B236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1208,10 +1208,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
@@ -1225,10 +1225,10 @@
         <v>3</v>
       </c>
       <c r="C2" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>82</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>83</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>49</v>
@@ -1242,10 +1242,10 @@
         <v>4</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>49</v>
@@ -1259,10 +1259,10 @@
         <v>19</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>49</v>
@@ -1276,10 +1276,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>49</v>
@@ -1293,10 +1293,10 @@
         <v>21</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>49</v>
@@ -1310,10 +1310,10 @@
         <v>20</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>49</v>
@@ -1327,10 +1327,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>49</v>
@@ -1344,10 +1344,10 @@
         <v>22</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>49</v>
@@ -1361,10 +1361,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>49</v>
@@ -1378,10 +1378,10 @@
         <v>23</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>49</v>
@@ -1395,10 +1395,10 @@
         <v>24</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>49</v>
@@ -1412,10 +1412,10 @@
         <v>25</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>49</v>
@@ -1429,10 +1429,10 @@
         <v>26</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>49</v>
@@ -1446,10 +1446,10 @@
         <v>24</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>49</v>
@@ -1463,10 +1463,10 @@
         <v>27</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>49</v>
@@ -1480,10 +1480,10 @@
         <v>24</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>49</v>
@@ -1497,10 +1497,10 @@
         <v>10</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>49</v>
@@ -1514,10 +1514,10 @@
         <v>28</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>49</v>
@@ -1531,10 +1531,10 @@
         <v>29</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>49</v>
@@ -1548,10 +1548,10 @@
         <v>6</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>49</v>
@@ -1565,10 +1565,10 @@
         <v>30</v>
       </c>
       <c r="C22" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" s="8" t="s">
         <v>88</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>89</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>49</v>
@@ -1582,10 +1582,10 @@
         <v>31</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>49</v>
@@ -1599,10 +1599,10 @@
         <v>12</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>49</v>
@@ -1616,10 +1616,10 @@
         <v>32</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>49</v>
@@ -1633,10 +1633,10 @@
         <v>33</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>49</v>
@@ -1651,10 +1651,10 @@
         <v>34</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>49</v>
@@ -1669,10 +1669,10 @@
         <v>35</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>49</v>
@@ -1686,10 +1686,10 @@
         <v>36</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>49</v>
@@ -1703,10 +1703,10 @@
         <v>10</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>49</v>
@@ -1720,10 +1720,10 @@
         <v>37</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>49</v>
@@ -1737,10 +1737,10 @@
         <v>38</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>49</v>
@@ -1754,10 +1754,10 @@
         <v>10</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>49</v>
@@ -1771,10 +1771,10 @@
         <v>39</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>49</v>
@@ -1788,10 +1788,10 @@
         <v>40</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>49</v>
@@ -1805,10 +1805,10 @@
         <v>41</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>49</v>
@@ -1816,16 +1816,16 @@
     </row>
     <row r="37" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="12" t="s">
-        <v>74</v>
+        <v>135</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>49</v>
@@ -1833,16 +1833,16 @@
     </row>
     <row r="38" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B38" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>49</v>
@@ -1850,16 +1850,16 @@
     </row>
     <row r="39" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B39" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>49</v>
@@ -1867,16 +1867,16 @@
     </row>
     <row r="40" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B40" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>49</v>
@@ -1890,10 +1890,10 @@
         <v>20</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>49</v>
@@ -1901,16 +1901,16 @@
     </row>
     <row r="42" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>42</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>49</v>
@@ -1918,16 +1918,16 @@
     </row>
     <row r="43" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B43" s="8" t="s">
         <v>43</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>49</v>
@@ -1935,16 +1935,16 @@
     </row>
     <row r="44" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B44" s="8" t="s">
         <v>44</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>49</v>
@@ -1952,16 +1952,16 @@
     </row>
     <row r="45" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B45" s="8" t="s">
         <v>45</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>49</v>
@@ -1975,10 +1975,10 @@
         <v>11</v>
       </c>
       <c r="C46" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D46" s="8" t="s">
         <v>88</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>89</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>49</v>
@@ -1992,10 +1992,10 @@
         <v>46</v>
       </c>
       <c r="C47" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D47" s="8" t="s">
         <v>88</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>89</v>
       </c>
       <c r="E47" s="6" t="s">
         <v>49</v>
@@ -2009,10 +2009,10 @@
         <v>47</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>49</v>
@@ -2026,10 +2026,10 @@
         <v>48</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>49</v>
@@ -2037,16 +2037,16 @@
     </row>
     <row r="50" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B50" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E50" s="6" t="s">
         <v>49</v>
@@ -2054,16 +2054,16 @@
     </row>
     <row r="51" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B51" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E51" s="6" t="s">
         <v>49</v>
@@ -2071,16 +2071,16 @@
     </row>
     <row r="52" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B52" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E52" s="6" t="s">
         <v>49</v>
@@ -2088,16 +2088,16 @@
     </row>
     <row r="53" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B53" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E53" s="6" t="s">
         <v>49</v>
@@ -2111,10 +2111,10 @@
         <v>16</v>
       </c>
       <c r="C54" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D54" s="8" t="s">
         <v>88</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>89</v>
       </c>
       <c r="E54" s="6" t="s">
         <v>49</v>
@@ -2128,10 +2128,10 @@
         <v>25</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E55" s="6" t="s">
         <v>49</v>
@@ -2145,10 +2145,10 @@
         <v>17</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E56" s="6" t="s">
         <v>49</v>
@@ -2162,10 +2162,10 @@
         <v>18</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E57" s="6" t="s">
         <v>49</v>
@@ -2179,10 +2179,10 @@
         <v>3</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E58" s="7" t="s">
         <v>50</v>
@@ -2196,10 +2196,10 @@
         <v>4</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E59" s="7" t="s">
         <v>50</v>
@@ -2213,10 +2213,10 @@
         <v>19</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E60" s="7" t="s">
         <v>50</v>
@@ -2230,10 +2230,10 @@
         <v>20</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E61" s="7" t="s">
         <v>50</v>
@@ -2247,10 +2247,10 @@
         <v>21</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E62" s="7" t="s">
         <v>50</v>
@@ -2264,10 +2264,10 @@
         <v>20</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E63" s="7" t="s">
         <v>50</v>
@@ -2281,10 +2281,10 @@
         <v>5</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E64" s="7" t="s">
         <v>50</v>
@@ -2298,10 +2298,10 @@
         <v>22</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E65" s="7" t="s">
         <v>50</v>
@@ -2316,10 +2316,10 @@
         <v>6</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E66" s="7" t="s">
         <v>50</v>
@@ -2333,10 +2333,10 @@
         <v>23</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E67" s="7" t="s">
         <v>50</v>
@@ -2350,10 +2350,10 @@
         <v>24</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E68" s="7" t="s">
         <v>50</v>
@@ -2367,10 +2367,10 @@
         <v>25</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E69" s="7" t="s">
         <v>50</v>
@@ -2384,10 +2384,10 @@
         <v>26</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E70" s="7" t="s">
         <v>50</v>
@@ -2401,10 +2401,10 @@
         <v>24</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E71" s="7" t="s">
         <v>50</v>
@@ -2418,10 +2418,10 @@
         <v>27</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E72" s="7" t="s">
         <v>50</v>
@@ -2435,10 +2435,10 @@
         <v>24</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E73" s="7" t="s">
         <v>50</v>
@@ -2452,10 +2452,10 @@
         <v>10</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E74" s="7" t="s">
         <v>50</v>
@@ -2469,10 +2469,10 @@
         <v>28</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E75" s="7" t="s">
         <v>50</v>
@@ -2486,10 +2486,10 @@
         <v>29</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E76" s="7" t="s">
         <v>50</v>
@@ -2503,10 +2503,10 @@
         <v>6</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E77" s="7" t="s">
         <v>50</v>
@@ -2520,10 +2520,10 @@
         <v>30</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E78" s="7" t="s">
         <v>50</v>
@@ -2537,10 +2537,10 @@
         <v>31</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E79" s="7" t="s">
         <v>50</v>
@@ -2555,10 +2555,10 @@
         <v>12</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E80" s="7" t="s">
         <v>50</v>
@@ -2573,10 +2573,10 @@
         <v>32</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E81" s="7" t="s">
         <v>50</v>
@@ -2590,10 +2590,10 @@
         <v>33</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E82" s="7" t="s">
         <v>50</v>
@@ -2607,10 +2607,10 @@
         <v>34</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E83" s="7" t="s">
         <v>50</v>
@@ -2625,10 +2625,10 @@
         <v>35</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E84" s="7" t="s">
         <v>50</v>
@@ -2642,10 +2642,10 @@
         <v>36</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E85" s="7" t="s">
         <v>50</v>
@@ -2659,10 +2659,10 @@
         <v>10</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E86" s="7" t="s">
         <v>50</v>
@@ -2676,10 +2676,10 @@
         <v>37</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E87" s="7" t="s">
         <v>50</v>
@@ -2693,10 +2693,10 @@
         <v>38</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E88" s="7" t="s">
         <v>50</v>
@@ -2710,10 +2710,10 @@
         <v>10</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E89" s="7" t="s">
         <v>50</v>
@@ -2727,10 +2727,10 @@
         <v>39</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E90" s="7" t="s">
         <v>50</v>
@@ -2744,10 +2744,10 @@
         <v>40</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E91" s="7" t="s">
         <v>50</v>
@@ -2761,10 +2761,10 @@
         <v>41</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E92" s="7" t="s">
         <v>50</v>
@@ -2772,16 +2772,16 @@
     </row>
     <row r="93" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="12" t="s">
-        <v>74</v>
+        <v>135</v>
       </c>
       <c r="B93" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E93" s="7" t="s">
         <v>50</v>
@@ -2789,16 +2789,16 @@
     </row>
     <row r="94" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E94" s="7" t="s">
         <v>50</v>
@@ -2806,16 +2806,16 @@
     </row>
     <row r="95" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B95" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E95" s="7" t="s">
         <v>50</v>
@@ -2823,16 +2823,16 @@
     </row>
     <row r="96" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E96" s="7" t="s">
         <v>50</v>
@@ -2846,10 +2846,10 @@
         <v>20</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E97" s="7" t="s">
         <v>50</v>
@@ -2857,16 +2857,16 @@
     </row>
     <row r="98" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B98" s="8" t="s">
         <v>42</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E98" s="7" t="s">
         <v>50</v>
@@ -2875,16 +2875,16 @@
     </row>
     <row r="99" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E99" s="7" t="s">
         <v>50</v>
@@ -2892,16 +2892,16 @@
     </row>
     <row r="100" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B100" s="8" t="s">
         <v>44</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E100" s="7" t="s">
         <v>50</v>
@@ -2909,16 +2909,16 @@
     </row>
     <row r="101" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B101" s="8" t="s">
         <v>45</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E101" s="7" t="s">
         <v>50</v>
@@ -2932,10 +2932,10 @@
         <v>11</v>
       </c>
       <c r="C102" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D102" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="D102" s="3" t="s">
-        <v>89</v>
       </c>
       <c r="E102" s="7" t="s">
         <v>50</v>
@@ -2949,10 +2949,10 @@
         <v>46</v>
       </c>
       <c r="C103" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D103" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="D103" s="3" t="s">
-        <v>89</v>
       </c>
       <c r="E103" s="7" t="s">
         <v>50</v>
@@ -2966,10 +2966,10 @@
         <v>47</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E104" s="7" t="s">
         <v>50</v>
@@ -2983,10 +2983,10 @@
         <v>48</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E105" s="7" t="s">
         <v>50</v>
@@ -2994,16 +2994,16 @@
     </row>
     <row r="106" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E106" s="7" t="s">
         <v>50</v>
@@ -3011,16 +3011,16 @@
     </row>
     <row r="107" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E107" s="7" t="s">
         <v>50</v>
@@ -3028,16 +3028,16 @@
     </row>
     <row r="108" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E108" s="7" t="s">
         <v>50</v>
@@ -3045,16 +3045,16 @@
     </row>
     <row r="109" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B109" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E109" s="7" t="s">
         <v>50</v>
@@ -3069,10 +3069,10 @@
         <v>16</v>
       </c>
       <c r="C110" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D110" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="D110" s="3" t="s">
-        <v>89</v>
       </c>
       <c r="E110" s="7" t="s">
         <v>50</v>
@@ -3086,10 +3086,10 @@
         <v>25</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E111" s="7" t="s">
         <v>50</v>
@@ -3103,10 +3103,10 @@
         <v>17</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E112" s="7" t="s">
         <v>50</v>
@@ -3120,10 +3120,10 @@
         <v>18</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E113" s="7" t="s">
         <v>50</v>
@@ -3137,10 +3137,10 @@
         <v>3</v>
       </c>
       <c r="C114" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D114" s="8" t="s">
         <v>109</v>
-      </c>
-      <c r="D114" s="8" t="s">
-        <v>110</v>
       </c>
       <c r="E114" s="4" t="s">
         <v>51</v>
@@ -3154,10 +3154,10 @@
         <v>4</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E115" s="4" t="s">
         <v>51</v>
@@ -3171,10 +3171,10 @@
         <v>19</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D116" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E116" s="4" t="s">
         <v>51</v>
@@ -3188,10 +3188,10 @@
         <v>20</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E117" s="4" t="s">
         <v>51</v>
@@ -3205,10 +3205,10 @@
         <v>21</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E118" s="4" t="s">
         <v>51</v>
@@ -3222,10 +3222,10 @@
         <v>20</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E119" s="4" t="s">
         <v>51</v>
@@ -3239,10 +3239,10 @@
         <v>5</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E120" s="4" t="s">
         <v>51</v>
@@ -3256,10 +3256,10 @@
         <v>22</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E121" s="4" t="s">
         <v>51</v>
@@ -3274,10 +3274,10 @@
         <v>6</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E122" s="4" t="s">
         <v>51</v>
@@ -3291,10 +3291,10 @@
         <v>23</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E123" s="4" t="s">
         <v>51</v>
@@ -3308,10 +3308,10 @@
         <v>24</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E124" s="4" t="s">
         <v>51</v>
@@ -3325,10 +3325,10 @@
         <v>25</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E125" s="4" t="s">
         <v>51</v>
@@ -3342,10 +3342,10 @@
         <v>26</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E126" s="4" t="s">
         <v>51</v>
@@ -3359,10 +3359,10 @@
         <v>24</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D127" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E127" s="4" t="s">
         <v>51</v>
@@ -3376,10 +3376,10 @@
         <v>27</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E128" s="4" t="s">
         <v>51</v>
@@ -3393,10 +3393,10 @@
         <v>24</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E129" s="4" t="s">
         <v>51</v>
@@ -3410,10 +3410,10 @@
         <v>10</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E130" s="4" t="s">
         <v>51</v>
@@ -3427,10 +3427,10 @@
         <v>28</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E131" s="4" t="s">
         <v>51</v>
@@ -3444,10 +3444,10 @@
         <v>29</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E132" s="4" t="s">
         <v>51</v>
@@ -3461,10 +3461,10 @@
         <v>6</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E133" s="4" t="s">
         <v>51</v>
@@ -3478,10 +3478,10 @@
         <v>30</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E134" s="4" t="s">
         <v>51</v>
@@ -3495,10 +3495,10 @@
         <v>31</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E135" s="4" t="s">
         <v>51</v>
@@ -3513,10 +3513,10 @@
         <v>12</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D136" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E136" s="4" t="s">
         <v>51</v>
@@ -3531,10 +3531,10 @@
         <v>32</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E137" s="4" t="s">
         <v>51</v>
@@ -3548,10 +3548,10 @@
         <v>33</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E138" s="4" t="s">
         <v>51</v>
@@ -3565,10 +3565,10 @@
         <v>34</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E139" s="4" t="s">
         <v>51</v>
@@ -3583,10 +3583,10 @@
         <v>35</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E140" s="4" t="s">
         <v>51</v>
@@ -3600,10 +3600,10 @@
         <v>36</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E141" s="4" t="s">
         <v>51</v>
@@ -3617,10 +3617,10 @@
         <v>10</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E142" s="4" t="s">
         <v>51</v>
@@ -3634,10 +3634,10 @@
         <v>37</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E143" s="4" t="s">
         <v>51</v>
@@ -3651,10 +3651,10 @@
         <v>38</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D144" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E144" s="4" t="s">
         <v>51</v>
@@ -3668,10 +3668,10 @@
         <v>10</v>
       </c>
       <c r="C145" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D145" s="8" t="s">
         <v>109</v>
-      </c>
-      <c r="D145" s="8" t="s">
-        <v>110</v>
       </c>
       <c r="E145" s="4" t="s">
         <v>51</v>
@@ -3685,10 +3685,10 @@
         <v>39</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D146" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E146" s="4" t="s">
         <v>51</v>
@@ -3702,10 +3702,10 @@
         <v>40</v>
       </c>
       <c r="C147" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D147" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E147" s="4" t="s">
         <v>51</v>
@@ -3719,10 +3719,10 @@
         <v>41</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D148" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E148" s="4" t="s">
         <v>51</v>
@@ -3730,16 +3730,16 @@
     </row>
     <row r="149" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A149" s="12" t="s">
-        <v>74</v>
+        <v>135</v>
       </c>
       <c r="B149" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D149" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E149" s="4" t="s">
         <v>51</v>
@@ -3747,16 +3747,16 @@
     </row>
     <row r="150" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A150" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B150" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D150" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E150" s="4" t="s">
         <v>51</v>
@@ -3764,16 +3764,16 @@
     </row>
     <row r="151" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A151" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B151" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D151" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E151" s="4" t="s">
         <v>51</v>
@@ -3781,16 +3781,16 @@
     </row>
     <row r="152" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A152" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B152" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C152" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D152" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E152" s="4" t="s">
         <v>51</v>
@@ -3804,10 +3804,10 @@
         <v>20</v>
       </c>
       <c r="C153" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D153" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E153" s="4" t="s">
         <v>51</v>
@@ -3815,16 +3815,16 @@
     </row>
     <row r="154" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A154" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B154" s="8" t="s">
         <v>42</v>
       </c>
       <c r="C154" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D154" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E154" s="4" t="s">
         <v>51</v>
@@ -3832,16 +3832,16 @@
     </row>
     <row r="155" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A155" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B155" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E155" s="4" t="s">
         <v>51</v>
@@ -3849,16 +3849,16 @@
     </row>
     <row r="156" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A156" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E156" s="4" t="s">
         <v>51</v>
@@ -3866,16 +3866,16 @@
     </row>
     <row r="157" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A157" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B157" s="8" t="s">
         <v>45</v>
       </c>
       <c r="C157" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D157" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E157" s="4" t="s">
         <v>51</v>
@@ -3890,10 +3890,10 @@
         <v>11</v>
       </c>
       <c r="C158" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D158" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="D158" s="3" t="s">
-        <v>89</v>
       </c>
       <c r="E158" s="4" t="s">
         <v>51</v>
@@ -3907,10 +3907,10 @@
         <v>46</v>
       </c>
       <c r="C159" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D159" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="D159" s="3" t="s">
-        <v>89</v>
       </c>
       <c r="E159" s="4" t="s">
         <v>51</v>
@@ -3924,10 +3924,10 @@
         <v>47</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E160" s="4" t="s">
         <v>51</v>
@@ -3941,10 +3941,10 @@
         <v>48</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E161" s="4" t="s">
         <v>51</v>
@@ -3952,16 +3952,16 @@
     </row>
     <row r="162" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A162" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B162" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E162" s="4" t="s">
         <v>51</v>
@@ -3969,16 +3969,16 @@
     </row>
     <row r="163" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A163" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E163" s="4" t="s">
         <v>51</v>
@@ -3986,16 +3986,16 @@
     </row>
     <row r="164" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A164" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B164" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E164" s="4" t="s">
         <v>51</v>
@@ -4003,16 +4003,16 @@
     </row>
     <row r="165" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A165" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B165" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C165" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D165" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E165" s="4" t="s">
         <v>51</v>
@@ -4026,10 +4026,10 @@
         <v>16</v>
       </c>
       <c r="C166" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D166" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="D166" s="3" t="s">
-        <v>89</v>
       </c>
       <c r="E166" s="4" t="s">
         <v>51</v>
@@ -4043,10 +4043,10 @@
         <v>25</v>
       </c>
       <c r="C167" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D167" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E167" s="4" t="s">
         <v>51</v>
@@ -4060,10 +4060,10 @@
         <v>17</v>
       </c>
       <c r="C168" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D168" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E168" s="4" t="s">
         <v>51</v>
@@ -4077,10 +4077,10 @@
         <v>18</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E169" s="4" t="s">
         <v>51</v>
@@ -4094,10 +4094,10 @@
         <v>3</v>
       </c>
       <c r="C170" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D170" s="8" t="s">
         <v>121</v>
-      </c>
-      <c r="D170" s="8" t="s">
-        <v>122</v>
       </c>
       <c r="E170" s="5" t="s">
         <v>52</v>
@@ -4111,10 +4111,10 @@
         <v>4</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E171" s="5" t="s">
         <v>52</v>
@@ -4128,10 +4128,10 @@
         <v>19</v>
       </c>
       <c r="C172" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D172" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E172" s="5" t="s">
         <v>52</v>
@@ -4145,10 +4145,10 @@
         <v>20</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E173" s="5" t="s">
         <v>52</v>
@@ -4162,10 +4162,10 @@
         <v>21</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E174" s="5" t="s">
         <v>52</v>
@@ -4179,10 +4179,10 @@
         <v>20</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E175" s="5" t="s">
         <v>52</v>
@@ -4196,10 +4196,10 @@
         <v>5</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E176" s="5" t="s">
         <v>52</v>
@@ -4213,10 +4213,10 @@
         <v>22</v>
       </c>
       <c r="C177" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D177" s="8" t="s">
         <v>124</v>
-      </c>
-      <c r="D177" s="8" t="s">
-        <v>125</v>
       </c>
       <c r="E177" s="5" t="s">
         <v>52</v>
@@ -4231,10 +4231,10 @@
         <v>6</v>
       </c>
       <c r="C178" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D178" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E178" s="5" t="s">
         <v>52</v>
@@ -4248,10 +4248,10 @@
         <v>23</v>
       </c>
       <c r="C179" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D179" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E179" s="5" t="s">
         <v>52</v>
@@ -4265,10 +4265,10 @@
         <v>24</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E180" s="5" t="s">
         <v>52</v>
@@ -4282,10 +4282,10 @@
         <v>25</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E181" s="5" t="s">
         <v>52</v>
@@ -4299,10 +4299,10 @@
         <v>26</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E182" s="5" t="s">
         <v>52</v>
@@ -4316,10 +4316,10 @@
         <v>24</v>
       </c>
       <c r="C183" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D183" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E183" s="5" t="s">
         <v>52</v>
@@ -4333,10 +4333,10 @@
         <v>27</v>
       </c>
       <c r="C184" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D184" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E184" s="5" t="s">
         <v>52</v>
@@ -4350,10 +4350,10 @@
         <v>24</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E185" s="5" t="s">
         <v>52</v>
@@ -4367,10 +4367,10 @@
         <v>10</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E186" s="5" t="s">
         <v>52</v>
@@ -4384,10 +4384,10 @@
         <v>28</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E187" s="5" t="s">
         <v>52</v>
@@ -4401,10 +4401,10 @@
         <v>29</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E188" s="5" t="s">
         <v>52</v>
@@ -4418,10 +4418,10 @@
         <v>6</v>
       </c>
       <c r="C189" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D189" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E189" s="5" t="s">
         <v>52</v>
@@ -4435,10 +4435,10 @@
         <v>30</v>
       </c>
       <c r="C190" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D190" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E190" s="5" t="s">
         <v>52</v>
@@ -4452,10 +4452,10 @@
         <v>31</v>
       </c>
       <c r="C191" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D191" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E191" s="5" t="s">
         <v>52</v>
@@ -4470,10 +4470,10 @@
         <v>12</v>
       </c>
       <c r="C192" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D192" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E192" s="5" t="s">
         <v>52</v>
@@ -4488,10 +4488,10 @@
         <v>32</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E193" s="5" t="s">
         <v>52</v>
@@ -4505,10 +4505,10 @@
         <v>33</v>
       </c>
       <c r="C194" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D194" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E194" s="5" t="s">
         <v>52</v>
@@ -4522,10 +4522,10 @@
         <v>34</v>
       </c>
       <c r="C195" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D195" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E195" s="5" t="s">
         <v>52</v>
@@ -4540,10 +4540,10 @@
         <v>35</v>
       </c>
       <c r="C196" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D196" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E196" s="5" t="s">
         <v>52</v>
@@ -4557,10 +4557,10 @@
         <v>36</v>
       </c>
       <c r="C197" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D197" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E197" s="5" t="s">
         <v>52</v>
@@ -4574,10 +4574,10 @@
         <v>10</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E198" s="5" t="s">
         <v>52</v>
@@ -4591,10 +4591,10 @@
         <v>37</v>
       </c>
       <c r="C199" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D199" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E199" s="5" t="s">
         <v>52</v>
@@ -4608,10 +4608,10 @@
         <v>38</v>
       </c>
       <c r="C200" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D200" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E200" s="5" t="s">
         <v>52</v>
@@ -4625,10 +4625,10 @@
         <v>10</v>
       </c>
       <c r="C201" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D201" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E201" s="5" t="s">
         <v>52</v>
@@ -4642,10 +4642,10 @@
         <v>39</v>
       </c>
       <c r="C202" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D202" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E202" s="5" t="s">
         <v>52</v>
@@ -4659,10 +4659,10 @@
         <v>40</v>
       </c>
       <c r="C203" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D203" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E203" s="5" t="s">
         <v>52</v>
@@ -4676,10 +4676,10 @@
         <v>41</v>
       </c>
       <c r="C204" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D204" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E204" s="5" t="s">
         <v>52</v>
@@ -4687,16 +4687,16 @@
     </row>
     <row r="205" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A205" s="12" t="s">
-        <v>74</v>
+        <v>135</v>
       </c>
       <c r="B205" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C205" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D205" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E205" s="5" t="s">
         <v>52</v>
@@ -4704,16 +4704,16 @@
     </row>
     <row r="206" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A206" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B206" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C206" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D206" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E206" s="5" t="s">
         <v>52</v>
@@ -4721,16 +4721,16 @@
     </row>
     <row r="207" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A207" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B207" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C207" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D207" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E207" s="5" t="s">
         <v>52</v>
@@ -4738,16 +4738,16 @@
     </row>
     <row r="208" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A208" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B208" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C208" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D208" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E208" s="5" t="s">
         <v>52</v>
@@ -4761,10 +4761,10 @@
         <v>20</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D209" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E209" s="5" t="s">
         <v>52</v>
@@ -4772,16 +4772,16 @@
     </row>
     <row r="210" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A210" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B210" s="8" t="s">
         <v>42</v>
       </c>
       <c r="C210" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D210" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E210" s="5" t="s">
         <v>52</v>
@@ -4789,16 +4789,16 @@
     </row>
     <row r="211" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A211" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B211" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D211" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E211" s="5" t="s">
         <v>52</v>
@@ -4806,16 +4806,16 @@
     </row>
     <row r="212" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A212" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B212" s="8" t="s">
         <v>44</v>
       </c>
       <c r="C212" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D212" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E212" s="5" t="s">
         <v>52</v>
@@ -4823,16 +4823,16 @@
     </row>
     <row r="213" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A213" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B213" s="8" t="s">
         <v>45</v>
       </c>
       <c r="C213" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D213" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E213" s="5" t="s">
         <v>52</v>
@@ -4847,10 +4847,10 @@
         <v>11</v>
       </c>
       <c r="C214" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D214" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="D214" s="3" t="s">
-        <v>89</v>
       </c>
       <c r="E214" s="5" t="s">
         <v>52</v>
@@ -4864,10 +4864,10 @@
         <v>46</v>
       </c>
       <c r="C215" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D215" s="8" t="s">
         <v>126</v>
-      </c>
-      <c r="D215" s="8" t="s">
-        <v>127</v>
       </c>
       <c r="E215" s="5" t="s">
         <v>52</v>
@@ -4881,10 +4881,10 @@
         <v>47</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D216" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E216" s="5" t="s">
         <v>52</v>
@@ -4898,10 +4898,10 @@
         <v>48</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D217" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E217" s="5" t="s">
         <v>52</v>
@@ -4909,16 +4909,16 @@
     </row>
     <row r="218" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A218" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B218" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D218" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E218" s="5" t="s">
         <v>52</v>
@@ -4926,16 +4926,16 @@
     </row>
     <row r="219" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A219" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B219" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C219" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D219" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E219" s="5" t="s">
         <v>52</v>
@@ -4943,16 +4943,16 @@
     </row>
     <row r="220" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A220" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B220" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C220" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D220" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E220" s="5" t="s">
         <v>52</v>
@@ -4960,16 +4960,16 @@
     </row>
     <row r="221" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A221" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B221" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C221" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D221" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E221" s="5" t="s">
         <v>52</v>
@@ -4983,10 +4983,10 @@
         <v>16</v>
       </c>
       <c r="C222" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D222" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="D222" s="3" t="s">
-        <v>89</v>
       </c>
       <c r="E222" s="5" t="s">
         <v>52</v>
@@ -5000,10 +5000,10 @@
         <v>25</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D223" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E223" s="5" t="s">
         <v>52</v>
@@ -5017,10 +5017,10 @@
         <v>17</v>
       </c>
       <c r="C224" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D224" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E224" s="5" t="s">
         <v>52</v>
@@ -5034,10 +5034,10 @@
         <v>18</v>
       </c>
       <c r="C225" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D225" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E225" s="5" t="s">
         <v>52</v>
@@ -5045,7 +5045,7 @@
     </row>
     <row r="226" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A226" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B226" s="12"/>
       <c r="C226" s="12"/>
@@ -5056,7 +5056,7 @@
     </row>
     <row r="227" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A227" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B227" s="12"/>
       <c r="C227" s="12"/>
@@ -5067,7 +5067,7 @@
     </row>
     <row r="228" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A228" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B228" s="12"/>
       <c r="C228" s="12"/>
@@ -5078,7 +5078,7 @@
     </row>
     <row r="229" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A229" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B229" s="12"/>
       <c r="C229" s="12"/>

--- a/Perk_data/data/weapons_perks.xlsx
+++ b/Perk_data/data/weapons_perks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pierre-Luc\Documents\GitHub\BattleBay_tool\Perk_data\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7C7B9F1-DE58-4B8E-856F-F05B2D3BB42B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE682FC1-2DA3-4717-89CB-1DEF4D5D33E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{06533344-5EE5-44BB-AD98-C040D80C4596}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{06533344-5EE5-44BB-AD98-C040D80C4596}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -210,9 +210,6 @@
     <t>long_range_mortar</t>
   </si>
   <si>
-    <t>all_incendiary_items</t>
-  </si>
-  <si>
     <t>flare_gun</t>
   </si>
   <si>
@@ -282,9 +279,6 @@
     <t>2nd-Bonus</t>
   </si>
   <si>
-    <t>7.5%-DAMAGE</t>
-  </si>
-  <si>
     <t>12%-RANGE</t>
   </si>
   <si>
@@ -300,18 +294,12 @@
     <t>1.5-DURATION</t>
   </si>
   <si>
-    <t>8%-DAMAGE</t>
-  </si>
-  <si>
     <t>13%-PROJECTILE_SPEED</t>
   </si>
   <si>
     <t>10%-PROJECTILE_SPEED</t>
   </si>
   <si>
-    <t>6%-DAMAGE</t>
-  </si>
-  <si>
     <t>8%-PROJECTILE_SPEED</t>
   </si>
   <si>
@@ -336,9 +324,6 @@
     <t>20%-CRITICAL_HIT_CHANCE</t>
   </si>
   <si>
-    <t>10%-DAMAGE</t>
-  </si>
-  <si>
     <t>12%-CRITICAL_HIT_CHANCE</t>
   </si>
   <si>
@@ -348,9 +333,6 @@
     <t>5%-COOL_DOWN</t>
   </si>
   <si>
-    <t>9-DAMAGE</t>
-  </si>
-  <si>
     <t>8%-STUN_CHANCE</t>
   </si>
   <si>
@@ -363,9 +345,6 @@
     <t>8%-FIRE_DAMAGE</t>
   </si>
   <si>
-    <t>5%-DAMAGE</t>
-  </si>
-  <si>
     <t>8%-RANGE</t>
   </si>
   <si>
@@ -396,12 +375,6 @@
     <t>9%-CRITICAL_HIT_CHANCE</t>
   </si>
   <si>
-    <t>6-DAMAGE</t>
-  </si>
-  <si>
-    <t>2.5%-DAMAGE</t>
-  </si>
-  <si>
     <t>5%-RANGE</t>
   </si>
   <si>
@@ -414,9 +387,6 @@
     <t>2%-COOL_DOWN</t>
   </si>
   <si>
-    <t>3%-DAMAGE</t>
-  </si>
-  <si>
     <t>5%-PROJECTILE_SPEED</t>
   </si>
   <si>
@@ -441,10 +411,40 @@
     <t>6%-CRITICAL_HIT_CHANCE</t>
   </si>
   <si>
-    <t>3-DAMAGE</t>
-  </si>
-  <si>
     <t>standard_cannon</t>
+  </si>
+  <si>
+    <t>7.5%-BASE_STAT</t>
+  </si>
+  <si>
+    <t>8%-BASE_STAT</t>
+  </si>
+  <si>
+    <t>6%-BASE_STAT</t>
+  </si>
+  <si>
+    <t>10%-BASE_STAT</t>
+  </si>
+  <si>
+    <t>9-BASE_STAT</t>
+  </si>
+  <si>
+    <t>5%-BASE_STAT</t>
+  </si>
+  <si>
+    <t>6-BASE_STAT</t>
+  </si>
+  <si>
+    <t>2.5%-BASE_STAT</t>
+  </si>
+  <si>
+    <t>3%-BASE_STAT</t>
+  </si>
+  <si>
+    <t>3-BASE_STAT</t>
+  </si>
+  <si>
+    <t>all_fire</t>
   </si>
 </sst>
 </file>
@@ -1187,8 +1187,8 @@
   <dimension ref="A1:F229"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B236" sqref="B236"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B235" sqref="B235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1208,10 +1208,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
@@ -1225,10 +1225,10 @@
         <v>3</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>49</v>
@@ -1242,10 +1242,10 @@
         <v>4</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>49</v>
@@ -1259,10 +1259,10 @@
         <v>19</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>49</v>
@@ -1276,10 +1276,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>49</v>
@@ -1293,10 +1293,10 @@
         <v>21</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>49</v>
@@ -1310,10 +1310,10 @@
         <v>20</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>49</v>
@@ -1327,10 +1327,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>49</v>
@@ -1338,16 +1338,16 @@
     </row>
     <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
-        <v>57</v>
+        <v>135</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>49</v>
@@ -1355,16 +1355,16 @@
     </row>
     <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
-        <v>57</v>
+        <v>135</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>49</v>
@@ -1372,16 +1372,16 @@
     </row>
     <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>23</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>49</v>
@@ -1389,16 +1389,16 @@
     </row>
     <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>49</v>
@@ -1406,16 +1406,16 @@
     </row>
     <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>49</v>
@@ -1423,16 +1423,16 @@
     </row>
     <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>49</v>
@@ -1440,16 +1440,16 @@
     </row>
     <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>49</v>
@@ -1457,16 +1457,16 @@
     </row>
     <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>49</v>
@@ -1474,16 +1474,16 @@
     </row>
     <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>49</v>
@@ -1491,16 +1491,16 @@
     </row>
     <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>49</v>
@@ -1508,16 +1508,16 @@
     </row>
     <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>28</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>49</v>
@@ -1525,16 +1525,16 @@
     </row>
     <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>49</v>
@@ -1542,16 +1542,16 @@
     </row>
     <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>49</v>
@@ -1559,16 +1559,16 @@
     </row>
     <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>30</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>49</v>
@@ -1576,16 +1576,16 @@
     </row>
     <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>31</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>49</v>
@@ -1593,16 +1593,16 @@
     </row>
     <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>49</v>
@@ -1610,16 +1610,16 @@
     </row>
     <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>32</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>49</v>
@@ -1627,16 +1627,16 @@
     </row>
     <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>33</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>49</v>
@@ -1645,16 +1645,16 @@
     </row>
     <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>49</v>
@@ -1663,16 +1663,16 @@
     </row>
     <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>35</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>49</v>
@@ -1680,16 +1680,16 @@
     </row>
     <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>36</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>49</v>
@@ -1697,16 +1697,16 @@
     </row>
     <row r="30" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>49</v>
@@ -1714,16 +1714,16 @@
     </row>
     <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>49</v>
@@ -1731,16 +1731,16 @@
     </row>
     <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>38</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>49</v>
@@ -1748,16 +1748,16 @@
     </row>
     <row r="33" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>49</v>
@@ -1765,16 +1765,16 @@
     </row>
     <row r="34" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>39</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>49</v>
@@ -1782,16 +1782,16 @@
     </row>
     <row r="35" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>40</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>49</v>
@@ -1799,16 +1799,16 @@
     </row>
     <row r="36" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>41</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>49</v>
@@ -1816,16 +1816,16 @@
     </row>
     <row r="37" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="12" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>49</v>
@@ -1833,16 +1833,16 @@
     </row>
     <row r="38" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B38" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>49</v>
@@ -1850,16 +1850,16 @@
     </row>
     <row r="39" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B39" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>49</v>
@@ -1867,16 +1867,16 @@
     </row>
     <row r="40" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B40" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>49</v>
@@ -1884,16 +1884,16 @@
     </row>
     <row r="41" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B41" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>49</v>
@@ -1901,16 +1901,16 @@
     </row>
     <row r="42" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>42</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>49</v>
@@ -1918,16 +1918,16 @@
     </row>
     <row r="43" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B43" s="8" t="s">
         <v>43</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>49</v>
@@ -1935,16 +1935,16 @@
     </row>
     <row r="44" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B44" s="8" t="s">
         <v>44</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>49</v>
@@ -1952,16 +1952,16 @@
     </row>
     <row r="45" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B45" s="8" t="s">
         <v>45</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>49</v>
@@ -1969,16 +1969,16 @@
     </row>
     <row r="46" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B46" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>49</v>
@@ -1986,16 +1986,16 @@
     </row>
     <row r="47" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B47" s="8" t="s">
         <v>46</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E47" s="6" t="s">
         <v>49</v>
@@ -2003,16 +2003,16 @@
     </row>
     <row r="48" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B48" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>49</v>
@@ -2020,16 +2020,16 @@
     </row>
     <row r="49" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B49" s="8" t="s">
         <v>48</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>49</v>
@@ -2037,16 +2037,16 @@
     </row>
     <row r="50" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B50" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E50" s="6" t="s">
         <v>49</v>
@@ -2054,16 +2054,16 @@
     </row>
     <row r="51" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B51" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E51" s="6" t="s">
         <v>49</v>
@@ -2071,16 +2071,16 @@
     </row>
     <row r="52" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B52" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E52" s="6" t="s">
         <v>49</v>
@@ -2088,16 +2088,16 @@
     </row>
     <row r="53" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B53" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E53" s="6" t="s">
         <v>49</v>
@@ -2105,16 +2105,16 @@
     </row>
     <row r="54" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B54" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E54" s="6" t="s">
         <v>49</v>
@@ -2122,16 +2122,16 @@
     </row>
     <row r="55" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B55" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E55" s="6" t="s">
         <v>49</v>
@@ -2139,16 +2139,16 @@
     </row>
     <row r="56" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B56" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E56" s="6" t="s">
         <v>49</v>
@@ -2156,16 +2156,16 @@
     </row>
     <row r="57" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B57" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E57" s="6" t="s">
         <v>49</v>
@@ -2179,10 +2179,10 @@
         <v>3</v>
       </c>
       <c r="C58" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D58" s="8" t="s">
         <v>81</v>
-      </c>
-      <c r="D58" s="8" t="s">
-        <v>83</v>
       </c>
       <c r="E58" s="7" t="s">
         <v>50</v>
@@ -2196,10 +2196,10 @@
         <v>4</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E59" s="7" t="s">
         <v>50</v>
@@ -2213,10 +2213,10 @@
         <v>19</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="E60" s="7" t="s">
         <v>50</v>
@@ -2230,10 +2230,10 @@
         <v>20</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E61" s="7" t="s">
         <v>50</v>
@@ -2247,10 +2247,10 @@
         <v>21</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E62" s="7" t="s">
         <v>50</v>
@@ -2264,10 +2264,10 @@
         <v>20</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E63" s="7" t="s">
         <v>50</v>
@@ -2281,10 +2281,10 @@
         <v>5</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E64" s="7" t="s">
         <v>50</v>
@@ -2292,16 +2292,16 @@
     </row>
     <row r="65" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="12" t="s">
-        <v>57</v>
+        <v>135</v>
       </c>
       <c r="B65" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E65" s="7" t="s">
         <v>50</v>
@@ -2310,16 +2310,16 @@
     </row>
     <row r="66" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="12" t="s">
-        <v>57</v>
+        <v>135</v>
       </c>
       <c r="B66" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E66" s="7" t="s">
         <v>50</v>
@@ -2327,16 +2327,16 @@
     </row>
     <row r="67" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B67" s="8" t="s">
         <v>23</v>
       </c>
       <c r="C67" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D67" s="8" t="s">
         <v>86</v>
-      </c>
-      <c r="D67" s="8" t="s">
-        <v>89</v>
       </c>
       <c r="E67" s="7" t="s">
         <v>50</v>
@@ -2344,16 +2344,16 @@
     </row>
     <row r="68" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B68" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E68" s="7" t="s">
         <v>50</v>
@@ -2361,16 +2361,16 @@
     </row>
     <row r="69" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E69" s="7" t="s">
         <v>50</v>
@@ -2378,16 +2378,16 @@
     </row>
     <row r="70" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E70" s="7" t="s">
         <v>50</v>
@@ -2395,16 +2395,16 @@
     </row>
     <row r="71" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B71" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E71" s="7" t="s">
         <v>50</v>
@@ -2412,16 +2412,16 @@
     </row>
     <row r="72" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E72" s="7" t="s">
         <v>50</v>
@@ -2429,16 +2429,16 @@
     </row>
     <row r="73" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B73" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E73" s="7" t="s">
         <v>50</v>
@@ -2446,16 +2446,16 @@
     </row>
     <row r="74" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B74" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E74" s="7" t="s">
         <v>50</v>
@@ -2463,16 +2463,16 @@
     </row>
     <row r="75" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E75" s="7" t="s">
         <v>50</v>
@@ -2480,16 +2480,16 @@
     </row>
     <row r="76" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E76" s="7" t="s">
         <v>50</v>
@@ -2497,16 +2497,16 @@
     </row>
     <row r="77" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B77" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E77" s="7" t="s">
         <v>50</v>
@@ -2514,16 +2514,16 @@
     </row>
     <row r="78" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B78" s="8" t="s">
         <v>30</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E78" s="7" t="s">
         <v>50</v>
@@ -2531,16 +2531,16 @@
     </row>
     <row r="79" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B79" s="8" t="s">
         <v>31</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="E79" s="7" t="s">
         <v>50</v>
@@ -2549,16 +2549,16 @@
     </row>
     <row r="80" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B80" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E80" s="7" t="s">
         <v>50</v>
@@ -2567,16 +2567,16 @@
     </row>
     <row r="81" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E81" s="7" t="s">
         <v>50</v>
@@ -2584,16 +2584,16 @@
     </row>
     <row r="82" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B82" s="8" t="s">
         <v>33</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E82" s="7" t="s">
         <v>50</v>
@@ -2601,16 +2601,16 @@
     </row>
     <row r="83" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B83" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E83" s="7" t="s">
         <v>50</v>
@@ -2619,16 +2619,16 @@
     </row>
     <row r="84" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E84" s="7" t="s">
         <v>50</v>
@@ -2636,16 +2636,16 @@
     </row>
     <row r="85" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E85" s="7" t="s">
         <v>50</v>
@@ -2653,16 +2653,16 @@
     </row>
     <row r="86" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B86" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E86" s="7" t="s">
         <v>50</v>
@@ -2670,16 +2670,16 @@
     </row>
     <row r="87" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B87" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E87" s="7" t="s">
         <v>50</v>
@@ -2687,16 +2687,16 @@
     </row>
     <row r="88" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B88" s="8" t="s">
         <v>38</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E88" s="7" t="s">
         <v>50</v>
@@ -2704,16 +2704,16 @@
     </row>
     <row r="89" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B89" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E89" s="7" t="s">
         <v>50</v>
@@ -2721,16 +2721,16 @@
     </row>
     <row r="90" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B90" s="8" t="s">
         <v>39</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E90" s="7" t="s">
         <v>50</v>
@@ -2738,16 +2738,16 @@
     </row>
     <row r="91" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B91" s="8" t="s">
         <v>40</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E91" s="7" t="s">
         <v>50</v>
@@ -2755,16 +2755,16 @@
     </row>
     <row r="92" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B92" s="8" t="s">
         <v>41</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E92" s="7" t="s">
         <v>50</v>
@@ -2772,16 +2772,16 @@
     </row>
     <row r="93" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="12" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="B93" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E93" s="7" t="s">
         <v>50</v>
@@ -2789,16 +2789,16 @@
     </row>
     <row r="94" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E94" s="7" t="s">
         <v>50</v>
@@ -2806,16 +2806,16 @@
     </row>
     <row r="95" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B95" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E95" s="7" t="s">
         <v>50</v>
@@ -2823,16 +2823,16 @@
     </row>
     <row r="96" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E96" s="7" t="s">
         <v>50</v>
@@ -2840,16 +2840,16 @@
     </row>
     <row r="97" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E97" s="7" t="s">
         <v>50</v>
@@ -2857,16 +2857,16 @@
     </row>
     <row r="98" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B98" s="8" t="s">
         <v>42</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E98" s="7" t="s">
         <v>50</v>
@@ -2875,16 +2875,16 @@
     </row>
     <row r="99" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E99" s="7" t="s">
         <v>50</v>
@@ -2892,16 +2892,16 @@
     </row>
     <row r="100" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B100" s="8" t="s">
         <v>44</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E100" s="7" t="s">
         <v>50</v>
@@ -2909,16 +2909,16 @@
     </row>
     <row r="101" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B101" s="8" t="s">
         <v>45</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="E101" s="7" t="s">
         <v>50</v>
@@ -2926,16 +2926,16 @@
     </row>
     <row r="102" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E102" s="7" t="s">
         <v>50</v>
@@ -2943,16 +2943,16 @@
     </row>
     <row r="103" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E103" s="7" t="s">
         <v>50</v>
@@ -2960,16 +2960,16 @@
     </row>
     <row r="104" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B104" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E104" s="7" t="s">
         <v>50</v>
@@ -2977,16 +2977,16 @@
     </row>
     <row r="105" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E105" s="7" t="s">
         <v>50</v>
@@ -2994,16 +2994,16 @@
     </row>
     <row r="106" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E106" s="7" t="s">
         <v>50</v>
@@ -3011,16 +3011,16 @@
     </row>
     <row r="107" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E107" s="7" t="s">
         <v>50</v>
@@ -3028,16 +3028,16 @@
     </row>
     <row r="108" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E108" s="7" t="s">
         <v>50</v>
@@ -3045,16 +3045,16 @@
     </row>
     <row r="109" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B109" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E109" s="7" t="s">
         <v>50</v>
@@ -3063,16 +3063,16 @@
     </row>
     <row r="110" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E110" s="7" t="s">
         <v>50</v>
@@ -3080,16 +3080,16 @@
     </row>
     <row r="111" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B111" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E111" s="7" t="s">
         <v>50</v>
@@ -3097,16 +3097,16 @@
     </row>
     <row r="112" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E112" s="7" t="s">
         <v>50</v>
@@ -3114,16 +3114,16 @@
     </row>
     <row r="113" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E113" s="7" t="s">
         <v>50</v>
@@ -3137,10 +3137,10 @@
         <v>3</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E114" s="4" t="s">
         <v>51</v>
@@ -3154,10 +3154,10 @@
         <v>4</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E115" s="4" t="s">
         <v>51</v>
@@ -3171,10 +3171,10 @@
         <v>19</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D116" s="9" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="E116" s="4" t="s">
         <v>51</v>
@@ -3188,10 +3188,10 @@
         <v>20</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E117" s="4" t="s">
         <v>51</v>
@@ -3205,10 +3205,10 @@
         <v>21</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E118" s="4" t="s">
         <v>51</v>
@@ -3222,10 +3222,10 @@
         <v>20</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E119" s="4" t="s">
         <v>51</v>
@@ -3239,10 +3239,10 @@
         <v>5</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E120" s="4" t="s">
         <v>51</v>
@@ -3250,16 +3250,16 @@
     </row>
     <row r="121" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="12" t="s">
-        <v>57</v>
+        <v>135</v>
       </c>
       <c r="B121" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E121" s="4" t="s">
         <v>51</v>
@@ -3268,16 +3268,16 @@
     </row>
     <row r="122" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="12" t="s">
-        <v>57</v>
+        <v>135</v>
       </c>
       <c r="B122" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E122" s="4" t="s">
         <v>51</v>
@@ -3285,16 +3285,16 @@
     </row>
     <row r="123" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A123" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E123" s="4" t="s">
         <v>51</v>
@@ -3302,16 +3302,16 @@
     </row>
     <row r="124" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B124" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E124" s="4" t="s">
         <v>51</v>
@@ -3319,16 +3319,16 @@
     </row>
     <row r="125" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E125" s="4" t="s">
         <v>51</v>
@@ -3336,16 +3336,16 @@
     </row>
     <row r="126" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E126" s="4" t="s">
         <v>51</v>
@@ -3353,16 +3353,16 @@
     </row>
     <row r="127" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B127" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="D127" s="9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E127" s="4" t="s">
         <v>51</v>
@@ -3370,16 +3370,16 @@
     </row>
     <row r="128" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E128" s="4" t="s">
         <v>51</v>
@@ -3387,16 +3387,16 @@
     </row>
     <row r="129" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A129" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E129" s="4" t="s">
         <v>51</v>
@@ -3404,16 +3404,16 @@
     </row>
     <row r="130" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E130" s="4" t="s">
         <v>51</v>
@@ -3421,16 +3421,16 @@
     </row>
     <row r="131" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B131" s="8" t="s">
         <v>28</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E131" s="4" t="s">
         <v>51</v>
@@ -3438,16 +3438,16 @@
     </row>
     <row r="132" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E132" s="4" t="s">
         <v>51</v>
@@ -3455,16 +3455,16 @@
     </row>
     <row r="133" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B133" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E133" s="4" t="s">
         <v>51</v>
@@ -3472,16 +3472,16 @@
     </row>
     <row r="134" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B134" s="8" t="s">
         <v>30</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E134" s="4" t="s">
         <v>51</v>
@@ -3489,16 +3489,16 @@
     </row>
     <row r="135" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B135" s="8" t="s">
         <v>31</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="E135" s="4" t="s">
         <v>51</v>
@@ -3507,16 +3507,16 @@
     </row>
     <row r="136" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B136" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="D136" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E136" s="4" t="s">
         <v>51</v>
@@ -3525,16 +3525,16 @@
     </row>
     <row r="137" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A137" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E137" s="4" t="s">
         <v>51</v>
@@ -3542,16 +3542,16 @@
     </row>
     <row r="138" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B138" s="8" t="s">
         <v>33</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="E138" s="4" t="s">
         <v>51</v>
@@ -3559,16 +3559,16 @@
     </row>
     <row r="139" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A139" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="E139" s="4" t="s">
         <v>51</v>
@@ -3577,16 +3577,16 @@
     </row>
     <row r="140" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A140" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E140" s="4" t="s">
         <v>51</v>
@@ -3594,16 +3594,16 @@
     </row>
     <row r="141" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E141" s="4" t="s">
         <v>51</v>
@@ -3611,16 +3611,16 @@
     </row>
     <row r="142" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A142" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B142" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E142" s="4" t="s">
         <v>51</v>
@@ -3628,16 +3628,16 @@
     </row>
     <row r="143" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E143" s="4" t="s">
         <v>51</v>
@@ -3645,16 +3645,16 @@
     </row>
     <row r="144" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B144" s="8" t="s">
         <v>38</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D144" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E144" s="4" t="s">
         <v>51</v>
@@ -3662,16 +3662,16 @@
     </row>
     <row r="145" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A145" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B145" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C145" s="8" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="D145" s="8" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E145" s="4" t="s">
         <v>51</v>
@@ -3679,16 +3679,16 @@
     </row>
     <row r="146" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A146" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B146" s="8" t="s">
         <v>39</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D146" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E146" s="4" t="s">
         <v>51</v>
@@ -3696,16 +3696,16 @@
     </row>
     <row r="147" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A147" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B147" s="8" t="s">
         <v>40</v>
       </c>
       <c r="C147" s="8" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="D147" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E147" s="4" t="s">
         <v>51</v>
@@ -3713,16 +3713,16 @@
     </row>
     <row r="148" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A148" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B148" s="8" t="s">
         <v>41</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="D148" s="8" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="E148" s="4" t="s">
         <v>51</v>
@@ -3730,16 +3730,16 @@
     </row>
     <row r="149" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A149" s="12" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="B149" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D149" s="8" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E149" s="4" t="s">
         <v>51</v>
@@ -3747,16 +3747,16 @@
     </row>
     <row r="150" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A150" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B150" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="D150" s="8" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E150" s="4" t="s">
         <v>51</v>
@@ -3764,16 +3764,16 @@
     </row>
     <row r="151" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A151" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B151" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="D151" s="8" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E151" s="4" t="s">
         <v>51</v>
@@ -3781,16 +3781,16 @@
     </row>
     <row r="152" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A152" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B152" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C152" s="8" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D152" s="8" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E152" s="4" t="s">
         <v>51</v>
@@ -3798,16 +3798,16 @@
     </row>
     <row r="153" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A153" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B153" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C153" s="8" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D153" s="8" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E153" s="4" t="s">
         <v>51</v>
@@ -3815,16 +3815,16 @@
     </row>
     <row r="154" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A154" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B154" s="8" t="s">
         <v>42</v>
       </c>
       <c r="C154" s="8" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D154" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E154" s="4" t="s">
         <v>51</v>
@@ -3832,16 +3832,16 @@
     </row>
     <row r="155" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A155" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B155" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E155" s="4" t="s">
         <v>51</v>
@@ -3849,16 +3849,16 @@
     </row>
     <row r="156" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A156" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E156" s="4" t="s">
         <v>51</v>
@@ -3866,16 +3866,16 @@
     </row>
     <row r="157" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A157" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B157" s="8" t="s">
         <v>45</v>
       </c>
       <c r="C157" s="8" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D157" s="9" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="E157" s="4" t="s">
         <v>51</v>
@@ -3884,16 +3884,16 @@
     </row>
     <row r="158" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A158" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E158" s="4" t="s">
         <v>51</v>
@@ -3901,16 +3901,16 @@
     </row>
     <row r="159" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A159" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B159" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E159" s="4" t="s">
         <v>51</v>
@@ -3918,16 +3918,16 @@
     </row>
     <row r="160" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A160" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E160" s="4" t="s">
         <v>51</v>
@@ -3935,16 +3935,16 @@
     </row>
     <row r="161" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A161" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B161" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E161" s="4" t="s">
         <v>51</v>
@@ -3952,16 +3952,16 @@
     </row>
     <row r="162" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A162" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B162" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E162" s="4" t="s">
         <v>51</v>
@@ -3969,16 +3969,16 @@
     </row>
     <row r="163" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A163" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E163" s="4" t="s">
         <v>51</v>
@@ -3986,16 +3986,16 @@
     </row>
     <row r="164" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A164" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B164" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E164" s="4" t="s">
         <v>51</v>
@@ -4003,16 +4003,16 @@
     </row>
     <row r="165" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A165" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B165" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C165" s="8" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="D165" s="8" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E165" s="4" t="s">
         <v>51</v>
@@ -4020,16 +4020,16 @@
     </row>
     <row r="166" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A166" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E166" s="4" t="s">
         <v>51</v>
@@ -4037,16 +4037,16 @@
     </row>
     <row r="167" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A167" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B167" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C167" s="8" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D167" s="8" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E167" s="4" t="s">
         <v>51</v>
@@ -4054,16 +4054,16 @@
     </row>
     <row r="168" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A168" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B168" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C168" s="8" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D168" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E168" s="4" t="s">
         <v>51</v>
@@ -4071,16 +4071,16 @@
     </row>
     <row r="169" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A169" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B169" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E169" s="4" t="s">
         <v>51</v>
@@ -4094,10 +4094,10 @@
         <v>3</v>
       </c>
       <c r="C170" s="8" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="D170" s="8" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="E170" s="5" t="s">
         <v>52</v>
@@ -4111,10 +4111,10 @@
         <v>4</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E171" s="5" t="s">
         <v>52</v>
@@ -4128,10 +4128,10 @@
         <v>19</v>
       </c>
       <c r="C172" s="8" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="D172" s="9" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="E172" s="5" t="s">
         <v>52</v>
@@ -4145,10 +4145,10 @@
         <v>20</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E173" s="5" t="s">
         <v>52</v>
@@ -4162,10 +4162,10 @@
         <v>21</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E174" s="5" t="s">
         <v>52</v>
@@ -4179,10 +4179,10 @@
         <v>20</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E175" s="5" t="s">
         <v>52</v>
@@ -4196,10 +4196,10 @@
         <v>5</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E176" s="5" t="s">
         <v>52</v>
@@ -4207,16 +4207,16 @@
     </row>
     <row r="177" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A177" s="12" t="s">
-        <v>57</v>
+        <v>135</v>
       </c>
       <c r="B177" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C177" s="8" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D177" s="8" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="E177" s="5" t="s">
         <v>52</v>
@@ -4225,16 +4225,16 @@
     </row>
     <row r="178" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A178" s="12" t="s">
-        <v>57</v>
+        <v>135</v>
       </c>
       <c r="B178" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C178" s="8" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="D178" s="8" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="E178" s="5" t="s">
         <v>52</v>
@@ -4242,16 +4242,16 @@
     </row>
     <row r="179" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A179" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B179" s="8" t="s">
         <v>23</v>
       </c>
       <c r="C179" s="8" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D179" s="8" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="E179" s="5" t="s">
         <v>52</v>
@@ -4259,16 +4259,16 @@
     </row>
     <row r="180" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A180" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B180" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E180" s="5" t="s">
         <v>52</v>
@@ -4276,16 +4276,16 @@
     </row>
     <row r="181" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A181" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B181" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E181" s="5" t="s">
         <v>52</v>
@@ -4293,16 +4293,16 @@
     </row>
     <row r="182" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A182" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E182" s="5" t="s">
         <v>52</v>
@@ -4310,16 +4310,16 @@
     </row>
     <row r="183" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A183" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B183" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C183" s="8" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="D183" s="8" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="E183" s="5" t="s">
         <v>52</v>
@@ -4327,16 +4327,16 @@
     </row>
     <row r="184" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A184" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B184" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C184" s="8" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="D184" s="8" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="E184" s="5" t="s">
         <v>52</v>
@@ -4344,16 +4344,16 @@
     </row>
     <row r="185" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A185" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B185" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E185" s="5" t="s">
         <v>52</v>
@@ -4361,16 +4361,16 @@
     </row>
     <row r="186" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A186" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B186" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E186" s="5" t="s">
         <v>52</v>
@@ -4378,16 +4378,16 @@
     </row>
     <row r="187" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A187" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E187" s="5" t="s">
         <v>52</v>
@@ -4395,16 +4395,16 @@
     </row>
     <row r="188" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A188" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B188" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E188" s="5" t="s">
         <v>52</v>
@@ -4412,16 +4412,16 @@
     </row>
     <row r="189" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A189" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B189" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C189" s="8" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="D189" s="8" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="E189" s="5" t="s">
         <v>52</v>
@@ -4429,16 +4429,16 @@
     </row>
     <row r="190" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A190" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B190" s="8" t="s">
         <v>30</v>
       </c>
       <c r="C190" s="8" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="D190" s="9" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E190" s="5" t="s">
         <v>52</v>
@@ -4446,16 +4446,16 @@
     </row>
     <row r="191" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A191" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B191" s="8" t="s">
         <v>31</v>
       </c>
       <c r="C191" s="8" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="D191" s="9" t="s">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="E191" s="5" t="s">
         <v>52</v>
@@ -4464,16 +4464,16 @@
     </row>
     <row r="192" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A192" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B192" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C192" s="8" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="D192" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E192" s="5" t="s">
         <v>52</v>
@@ -4482,16 +4482,16 @@
     </row>
     <row r="193" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A193" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B193" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E193" s="5" t="s">
         <v>52</v>
@@ -4499,16 +4499,16 @@
     </row>
     <row r="194" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A194" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B194" s="8" t="s">
         <v>33</v>
       </c>
       <c r="C194" s="8" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="D194" s="8" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="E194" s="5" t="s">
         <v>52</v>
@@ -4516,16 +4516,16 @@
     </row>
     <row r="195" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A195" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B195" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C195" s="8" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D195" s="8" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="E195" s="5" t="s">
         <v>52</v>
@@ -4534,16 +4534,16 @@
     </row>
     <row r="196" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A196" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B196" s="8" t="s">
         <v>35</v>
       </c>
       <c r="C196" s="8" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D196" s="8" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="E196" s="5" t="s">
         <v>52</v>
@@ -4551,16 +4551,16 @@
     </row>
     <row r="197" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A197" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B197" s="8" t="s">
         <v>36</v>
       </c>
       <c r="C197" s="8" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="D197" s="8" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="E197" s="5" t="s">
         <v>52</v>
@@ -4568,16 +4568,16 @@
     </row>
     <row r="198" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A198" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B198" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E198" s="5" t="s">
         <v>52</v>
@@ -4585,16 +4585,16 @@
     </row>
     <row r="199" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A199" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B199" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C199" s="8" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="D199" s="8" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="E199" s="5" t="s">
         <v>52</v>
@@ -4602,16 +4602,16 @@
     </row>
     <row r="200" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A200" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B200" s="8" t="s">
         <v>38</v>
       </c>
       <c r="C200" s="8" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D200" s="8" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="E200" s="5" t="s">
         <v>52</v>
@@ -4619,16 +4619,16 @@
     </row>
     <row r="201" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A201" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B201" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C201" s="8" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="D201" s="8" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="E201" s="5" t="s">
         <v>52</v>
@@ -4636,16 +4636,16 @@
     </row>
     <row r="202" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A202" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B202" s="8" t="s">
         <v>39</v>
       </c>
       <c r="C202" s="8" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="D202" s="8" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="E202" s="5" t="s">
         <v>52</v>
@@ -4653,16 +4653,16 @@
     </row>
     <row r="203" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A203" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B203" s="8" t="s">
         <v>40</v>
       </c>
       <c r="C203" s="8" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="D203" s="8" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="E203" s="5" t="s">
         <v>52</v>
@@ -4670,16 +4670,16 @@
     </row>
     <row r="204" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A204" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B204" s="8" t="s">
         <v>41</v>
       </c>
       <c r="C204" s="8" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="D204" s="8" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="E204" s="5" t="s">
         <v>52</v>
@@ -4687,16 +4687,16 @@
     </row>
     <row r="205" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A205" s="12" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="B205" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C205" s="8" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="D205" s="8" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="E205" s="5" t="s">
         <v>52</v>
@@ -4704,16 +4704,16 @@
     </row>
     <row r="206" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A206" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B206" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C206" s="8" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="D206" s="8" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="E206" s="5" t="s">
         <v>52</v>
@@ -4721,16 +4721,16 @@
     </row>
     <row r="207" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A207" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B207" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C207" s="8" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="D207" s="8" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="E207" s="5" t="s">
         <v>52</v>
@@ -4738,16 +4738,16 @@
     </row>
     <row r="208" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A208" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B208" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C208" s="8" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="D208" s="8" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="E208" s="5" t="s">
         <v>52</v>
@@ -4755,16 +4755,16 @@
     </row>
     <row r="209" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A209" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B209" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D209" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E209" s="5" t="s">
         <v>52</v>
@@ -4772,16 +4772,16 @@
     </row>
     <row r="210" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A210" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B210" s="8" t="s">
         <v>42</v>
       </c>
       <c r="C210" s="8" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="D210" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E210" s="5" t="s">
         <v>52</v>
@@ -4789,16 +4789,16 @@
     </row>
     <row r="211" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A211" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B211" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D211" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E211" s="5" t="s">
         <v>52</v>
@@ -4806,16 +4806,16 @@
     </row>
     <row r="212" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A212" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B212" s="8" t="s">
         <v>44</v>
       </c>
       <c r="C212" s="8" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="D212" s="8" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="E212" s="5" t="s">
         <v>52</v>
@@ -4823,16 +4823,16 @@
     </row>
     <row r="213" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A213" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B213" s="8" t="s">
         <v>45</v>
       </c>
       <c r="C213" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D213" s="8" t="s">
         <v>133</v>
-      </c>
-      <c r="D213" s="8" t="s">
-        <v>125</v>
       </c>
       <c r="E213" s="5" t="s">
         <v>52</v>
@@ -4841,16 +4841,16 @@
     </row>
     <row r="214" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A214" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B214" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="D214" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E214" s="5" t="s">
         <v>52</v>
@@ -4858,16 +4858,16 @@
     </row>
     <row r="215" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A215" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B215" s="8" t="s">
         <v>46</v>
       </c>
       <c r="C215" s="8" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="D215" s="8" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="E215" s="5" t="s">
         <v>52</v>
@@ -4875,16 +4875,16 @@
     </row>
     <row r="216" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A216" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B216" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D216" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E216" s="5" t="s">
         <v>52</v>
@@ -4892,16 +4892,16 @@
     </row>
     <row r="217" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A217" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B217" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="D217" s="3" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E217" s="5" t="s">
         <v>52</v>
@@ -4909,16 +4909,16 @@
     </row>
     <row r="218" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A218" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B218" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D218" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E218" s="5" t="s">
         <v>52</v>
@@ -4926,16 +4926,16 @@
     </row>
     <row r="219" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A219" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B219" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C219" s="8" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="D219" s="8" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="E219" s="5" t="s">
         <v>52</v>
@@ -4943,7 +4943,7 @@
     </row>
     <row r="220" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A220" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B220" s="8" t="s">
         <v>14</v>
@@ -4952,7 +4952,7 @@
         <v>134</v>
       </c>
       <c r="D220" s="8" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="E220" s="5" t="s">
         <v>52</v>
@@ -4960,7 +4960,7 @@
     </row>
     <row r="221" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A221" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B221" s="8" t="s">
         <v>15</v>
@@ -4969,7 +4969,7 @@
         <v>134</v>
       </c>
       <c r="D221" s="8" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="E221" s="5" t="s">
         <v>52</v>
@@ -4977,16 +4977,16 @@
     </row>
     <row r="222" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A222" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B222" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="D222" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E222" s="5" t="s">
         <v>52</v>
@@ -4994,16 +4994,16 @@
     </row>
     <row r="223" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A223" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B223" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D223" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E223" s="5" t="s">
         <v>52</v>
@@ -5011,16 +5011,16 @@
     </row>
     <row r="224" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A224" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B224" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C224" s="9" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D224" s="8" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="E224" s="5" t="s">
         <v>52</v>
@@ -5028,16 +5028,16 @@
     </row>
     <row r="225" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A225" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B225" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C225" s="8" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="D225" s="8" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="E225" s="5" t="s">
         <v>52</v>
@@ -5045,7 +5045,7 @@
     </row>
     <row r="226" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A226" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B226" s="12"/>
       <c r="C226" s="12"/>
@@ -5056,7 +5056,7 @@
     </row>
     <row r="227" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A227" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B227" s="12"/>
       <c r="C227" s="12"/>
@@ -5067,7 +5067,7 @@
     </row>
     <row r="228" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A228" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B228" s="12"/>
       <c r="C228" s="12"/>
@@ -5078,7 +5078,7 @@
     </row>
     <row r="229" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A229" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B229" s="12"/>
       <c r="C229" s="12"/>

--- a/Perk_data/data/weapons_perks.xlsx
+++ b/Perk_data/data/weapons_perks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pierre-Luc\Documents\GitHub\BattleBay_tool\Perk_data\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE682FC1-2DA3-4717-89CB-1DEF4D5D33E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6605854-121B-4B26-B3F1-859AE998FBF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{06533344-5EE5-44BB-AD98-C040D80C4596}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="137">
   <si>
     <t>Item</t>
   </si>
@@ -445,6 +445,9 @@
   </si>
   <si>
     <t>all_fire</t>
+  </si>
+  <si>
+    <t>2%-BASE_STAT</t>
   </si>
 </sst>
 </file>
@@ -1188,7 +1191,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B235" sqref="B235"/>
+      <selection pane="bottomLeft" activeCell="C232" sqref="C232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2383,8 +2386,8 @@
       <c r="B70" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C70" s="3" t="s">
-        <v>127</v>
+      <c r="C70" s="8" t="s">
+        <v>125</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>82</v>
@@ -2403,8 +2406,8 @@
       <c r="C71" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="D71" s="9" t="s">
-        <v>86</v>
+      <c r="D71" s="8" t="s">
+        <v>87</v>
       </c>
       <c r="E71" s="7" t="s">
         <v>50</v>
@@ -2695,8 +2698,8 @@
       <c r="C88" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="D88" s="9" t="s">
-        <v>85</v>
+      <c r="D88" s="8" t="s">
+        <v>86</v>
       </c>
       <c r="E88" s="7" t="s">
         <v>50</v>
@@ -3386,17 +3389,17 @@
       </c>
     </row>
     <row r="129" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A129" s="13" t="s">
+      <c r="A129" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B129" s="3" t="s">
+      <c r="B129" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C129" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D129" s="3" t="s">
-        <v>86</v>
+      <c r="C129" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="D129" s="8" t="s">
+        <v>105</v>
       </c>
       <c r="E129" s="4" t="s">
         <v>51</v>
@@ -3636,8 +3639,8 @@
       <c r="C143" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="D143" s="3" t="s">
-        <v>85</v>
+      <c r="D143" s="8" t="s">
+        <v>99</v>
       </c>
       <c r="E143" s="4" t="s">
         <v>51</v>
@@ -4275,34 +4278,34 @@
       </c>
     </row>
     <row r="181" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A181" s="13" t="s">
+      <c r="A181" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="B181" s="3" t="s">
+      <c r="B181" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C181" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D181" s="3" t="s">
-        <v>82</v>
+      <c r="C181" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D181" s="8" t="s">
+        <v>115</v>
       </c>
       <c r="E181" s="5" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="182" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A182" s="13" t="s">
+      <c r="A182" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="B182" s="3" t="s">
+      <c r="B182" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C182" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D182" s="3" t="s">
-        <v>82</v>
+      <c r="C182" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D182" s="8" t="s">
+        <v>115</v>
       </c>
       <c r="E182" s="5" t="s">
         <v>52</v>

--- a/Perk_data/data/weapons_perks.xlsx
+++ b/Perk_data/data/weapons_perks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pierre-Luc\Documents\GitHub\BattleBay_tool\Perk_data\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6605854-121B-4B26-B3F1-859AE998FBF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E1C584D-BE33-4941-B970-DD90DA018999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{06533344-5EE5-44BB-AD98-C040D80C4596}"/>
   </bookViews>
@@ -240,9 +240,6 @@
     <t>gatling_gun</t>
   </si>
   <si>
-    <t>railguns</t>
-  </si>
-  <si>
     <t>standard_torpedo</t>
   </si>
   <si>
@@ -448,6 +445,9 @@
   </si>
   <si>
     <t>2%-BASE_STAT</t>
+  </si>
+  <si>
+    <t>railgun</t>
   </si>
 </sst>
 </file>
@@ -648,7 +648,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -673,6 +673,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1191,7 +1194,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C232" sqref="C232"/>
+      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1211,10 +1214,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
@@ -1228,10 +1231,10 @@
         <v>3</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>49</v>
@@ -1245,10 +1248,10 @@
         <v>4</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>49</v>
@@ -1262,10 +1265,10 @@
         <v>19</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>49</v>
@@ -1279,10 +1282,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>49</v>
@@ -1296,10 +1299,10 @@
         <v>21</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>49</v>
@@ -1313,10 +1316,10 @@
         <v>20</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>49</v>
@@ -1330,10 +1333,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>49</v>
@@ -1341,16 +1344,16 @@
     </row>
     <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>49</v>
@@ -1358,16 +1361,16 @@
     </row>
     <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>49</v>
@@ -1381,10 +1384,10 @@
         <v>23</v>
       </c>
       <c r="C11" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>84</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>85</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>49</v>
@@ -1398,10 +1401,10 @@
         <v>24</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>49</v>
@@ -1415,10 +1418,10 @@
         <v>25</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>49</v>
@@ -1432,10 +1435,10 @@
         <v>26</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>49</v>
@@ -1449,10 +1452,10 @@
         <v>24</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>49</v>
@@ -1466,10 +1469,10 @@
         <v>27</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>49</v>
@@ -1483,10 +1486,10 @@
         <v>24</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>49</v>
@@ -1500,10 +1503,10 @@
         <v>10</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>49</v>
@@ -1517,10 +1520,10 @@
         <v>28</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>49</v>
@@ -1534,10 +1537,10 @@
         <v>29</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>49</v>
@@ -1551,10 +1554,10 @@
         <v>6</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>49</v>
@@ -1568,10 +1571,10 @@
         <v>30</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>49</v>
@@ -1585,10 +1588,10 @@
         <v>31</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>49</v>
@@ -1602,10 +1605,10 @@
         <v>12</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>49</v>
@@ -1619,10 +1622,10 @@
         <v>32</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>49</v>
@@ -1630,16 +1633,16 @@
     </row>
     <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="12" t="s">
-        <v>67</v>
+        <v>136</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>33</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>49</v>
@@ -1648,16 +1651,16 @@
     </row>
     <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="12" t="s">
-        <v>67</v>
+        <v>136</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>49</v>
@@ -1666,16 +1669,16 @@
     </row>
     <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="12" t="s">
-        <v>67</v>
+        <v>136</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>35</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>49</v>
@@ -1683,16 +1686,16 @@
     </row>
     <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>36</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>49</v>
@@ -1700,16 +1703,16 @@
     </row>
     <row r="30" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>49</v>
@@ -1717,16 +1720,16 @@
     </row>
     <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>49</v>
@@ -1734,16 +1737,16 @@
     </row>
     <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>38</v>
       </c>
       <c r="C32" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D32" s="8" t="s">
         <v>84</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>85</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>49</v>
@@ -1751,16 +1754,16 @@
     </row>
     <row r="33" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>49</v>
@@ -1768,16 +1771,16 @@
     </row>
     <row r="34" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>39</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>49</v>
@@ -1785,16 +1788,16 @@
     </row>
     <row r="35" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>40</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>49</v>
@@ -1808,10 +1811,10 @@
         <v>41</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>49</v>
@@ -1819,16 +1822,16 @@
     </row>
     <row r="37" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>49</v>
@@ -1836,16 +1839,16 @@
     </row>
     <row r="38" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B38" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>49</v>
@@ -1853,16 +1856,16 @@
     </row>
     <row r="39" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B39" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>49</v>
@@ -1870,16 +1873,16 @@
     </row>
     <row r="40" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B40" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>49</v>
@@ -1893,10 +1896,10 @@
         <v>20</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>49</v>
@@ -1904,16 +1907,16 @@
     </row>
     <row r="42" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>42</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>49</v>
@@ -1921,16 +1924,16 @@
     </row>
     <row r="43" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B43" s="8" t="s">
         <v>43</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>49</v>
@@ -1938,16 +1941,16 @@
     </row>
     <row r="44" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B44" s="8" t="s">
         <v>44</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>49</v>
@@ -1955,16 +1958,16 @@
     </row>
     <row r="45" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B45" s="8" t="s">
         <v>45</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>49</v>
@@ -1978,10 +1981,10 @@
         <v>11</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>49</v>
@@ -1995,10 +1998,10 @@
         <v>46</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E47" s="6" t="s">
         <v>49</v>
@@ -2012,10 +2015,10 @@
         <v>47</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>49</v>
@@ -2023,16 +2026,16 @@
     </row>
     <row r="49" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B49" s="8" t="s">
         <v>48</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>49</v>
@@ -2040,16 +2043,16 @@
     </row>
     <row r="50" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B50" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E50" s="6" t="s">
         <v>49</v>
@@ -2057,16 +2060,16 @@
     </row>
     <row r="51" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B51" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E51" s="6" t="s">
         <v>49</v>
@@ -2074,16 +2077,16 @@
     </row>
     <row r="52" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B52" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E52" s="6" t="s">
         <v>49</v>
@@ -2091,16 +2094,16 @@
     </row>
     <row r="53" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B53" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E53" s="6" t="s">
         <v>49</v>
@@ -2108,16 +2111,16 @@
     </row>
     <row r="54" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B54" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E54" s="6" t="s">
         <v>49</v>
@@ -2131,10 +2134,10 @@
         <v>25</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E55" s="6" t="s">
         <v>49</v>
@@ -2148,10 +2151,10 @@
         <v>17</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E56" s="6" t="s">
         <v>49</v>
@@ -2165,10 +2168,10 @@
         <v>18</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E57" s="6" t="s">
         <v>49</v>
@@ -2182,10 +2185,10 @@
         <v>3</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E58" s="7" t="s">
         <v>50</v>
@@ -2199,10 +2202,10 @@
         <v>4</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E59" s="7" t="s">
         <v>50</v>
@@ -2216,10 +2219,10 @@
         <v>19</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E60" s="7" t="s">
         <v>50</v>
@@ -2233,10 +2236,10 @@
         <v>20</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E61" s="7" t="s">
         <v>50</v>
@@ -2250,10 +2253,10 @@
         <v>21</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E62" s="7" t="s">
         <v>50</v>
@@ -2267,10 +2270,10 @@
         <v>20</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E63" s="7" t="s">
         <v>50</v>
@@ -2284,10 +2287,10 @@
         <v>5</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E64" s="7" t="s">
         <v>50</v>
@@ -2295,16 +2298,16 @@
     </row>
     <row r="65" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B65" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E65" s="7" t="s">
         <v>50</v>
@@ -2313,16 +2316,16 @@
     </row>
     <row r="66" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B66" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E66" s="7" t="s">
         <v>50</v>
@@ -2336,10 +2339,10 @@
         <v>23</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E67" s="7" t="s">
         <v>50</v>
@@ -2353,10 +2356,10 @@
         <v>24</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E68" s="7" t="s">
         <v>50</v>
@@ -2370,10 +2373,10 @@
         <v>25</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E69" s="7" t="s">
         <v>50</v>
@@ -2387,10 +2390,10 @@
         <v>26</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E70" s="7" t="s">
         <v>50</v>
@@ -2404,10 +2407,10 @@
         <v>24</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E71" s="7" t="s">
         <v>50</v>
@@ -2421,10 +2424,10 @@
         <v>27</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E72" s="7" t="s">
         <v>50</v>
@@ -2438,10 +2441,10 @@
         <v>24</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E73" s="7" t="s">
         <v>50</v>
@@ -2455,10 +2458,10 @@
         <v>10</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E74" s="7" t="s">
         <v>50</v>
@@ -2472,10 +2475,10 @@
         <v>28</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E75" s="7" t="s">
         <v>50</v>
@@ -2489,10 +2492,10 @@
         <v>29</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E76" s="7" t="s">
         <v>50</v>
@@ -2506,10 +2509,10 @@
         <v>6</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E77" s="7" t="s">
         <v>50</v>
@@ -2523,10 +2526,10 @@
         <v>30</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E78" s="7" t="s">
         <v>50</v>
@@ -2540,10 +2543,10 @@
         <v>31</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E79" s="7" t="s">
         <v>50</v>
@@ -2558,10 +2561,10 @@
         <v>12</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E80" s="7" t="s">
         <v>50</v>
@@ -2576,10 +2579,10 @@
         <v>32</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E81" s="7" t="s">
         <v>50</v>
@@ -2587,16 +2590,16 @@
     </row>
     <row r="82" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="12" t="s">
-        <v>67</v>
+        <v>136</v>
       </c>
       <c r="B82" s="8" t="s">
         <v>33</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E82" s="7" t="s">
         <v>50</v>
@@ -2604,16 +2607,16 @@
     </row>
     <row r="83" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="12" t="s">
-        <v>67</v>
+        <v>136</v>
       </c>
       <c r="B83" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E83" s="7" t="s">
         <v>50</v>
@@ -2621,17 +2624,17 @@
       <c r="F83" s="10"/>
     </row>
     <row r="84" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="13" t="s">
-        <v>67</v>
+      <c r="A84" s="16" t="s">
+        <v>136</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E84" s="7" t="s">
         <v>50</v>
@@ -2639,16 +2642,16 @@
     </row>
     <row r="85" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E85" s="7" t="s">
         <v>50</v>
@@ -2656,16 +2659,16 @@
     </row>
     <row r="86" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B86" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E86" s="7" t="s">
         <v>50</v>
@@ -2673,16 +2676,16 @@
     </row>
     <row r="87" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B87" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E87" s="7" t="s">
         <v>50</v>
@@ -2690,16 +2693,16 @@
     </row>
     <row r="88" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B88" s="8" t="s">
         <v>38</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E88" s="7" t="s">
         <v>50</v>
@@ -2707,16 +2710,16 @@
     </row>
     <row r="89" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B89" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E89" s="7" t="s">
         <v>50</v>
@@ -2724,16 +2727,16 @@
     </row>
     <row r="90" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B90" s="8" t="s">
         <v>39</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E90" s="7" t="s">
         <v>50</v>
@@ -2741,16 +2744,16 @@
     </row>
     <row r="91" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B91" s="8" t="s">
         <v>40</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E91" s="7" t="s">
         <v>50</v>
@@ -2764,10 +2767,10 @@
         <v>41</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E92" s="7" t="s">
         <v>50</v>
@@ -2775,16 +2778,16 @@
     </row>
     <row r="93" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B93" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E93" s="7" t="s">
         <v>50</v>
@@ -2792,16 +2795,16 @@
     </row>
     <row r="94" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E94" s="7" t="s">
         <v>50</v>
@@ -2809,16 +2812,16 @@
     </row>
     <row r="95" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B95" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E95" s="7" t="s">
         <v>50</v>
@@ -2826,16 +2829,16 @@
     </row>
     <row r="96" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E96" s="7" t="s">
         <v>50</v>
@@ -2849,10 +2852,10 @@
         <v>20</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E97" s="7" t="s">
         <v>50</v>
@@ -2860,16 +2863,16 @@
     </row>
     <row r="98" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B98" s="8" t="s">
         <v>42</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E98" s="7" t="s">
         <v>50</v>
@@ -2878,16 +2881,16 @@
     </row>
     <row r="99" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E99" s="7" t="s">
         <v>50</v>
@@ -2895,16 +2898,16 @@
     </row>
     <row r="100" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B100" s="8" t="s">
         <v>44</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E100" s="7" t="s">
         <v>50</v>
@@ -2912,16 +2915,16 @@
     </row>
     <row r="101" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B101" s="8" t="s">
         <v>45</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E101" s="7" t="s">
         <v>50</v>
@@ -2935,10 +2938,10 @@
         <v>11</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E102" s="7" t="s">
         <v>50</v>
@@ -2952,10 +2955,10 @@
         <v>46</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E103" s="7" t="s">
         <v>50</v>
@@ -2969,10 +2972,10 @@
         <v>47</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E104" s="7" t="s">
         <v>50</v>
@@ -2980,16 +2983,16 @@
     </row>
     <row r="105" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E105" s="7" t="s">
         <v>50</v>
@@ -2997,16 +3000,16 @@
     </row>
     <row r="106" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E106" s="7" t="s">
         <v>50</v>
@@ -3014,16 +3017,16 @@
     </row>
     <row r="107" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E107" s="7" t="s">
         <v>50</v>
@@ -3031,16 +3034,16 @@
     </row>
     <row r="108" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E108" s="7" t="s">
         <v>50</v>
@@ -3048,16 +3051,16 @@
     </row>
     <row r="109" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B109" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E109" s="7" t="s">
         <v>50</v>
@@ -3066,16 +3069,16 @@
     </row>
     <row r="110" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E110" s="7" t="s">
         <v>50</v>
@@ -3089,10 +3092,10 @@
         <v>25</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E111" s="7" t="s">
         <v>50</v>
@@ -3106,10 +3109,10 @@
         <v>17</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E112" s="7" t="s">
         <v>50</v>
@@ -3123,10 +3126,10 @@
         <v>18</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E113" s="7" t="s">
         <v>50</v>
@@ -3140,10 +3143,10 @@
         <v>3</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E114" s="4" t="s">
         <v>51</v>
@@ -3157,10 +3160,10 @@
         <v>4</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E115" s="4" t="s">
         <v>51</v>
@@ -3174,10 +3177,10 @@
         <v>19</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D116" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E116" s="4" t="s">
         <v>51</v>
@@ -3191,10 +3194,10 @@
         <v>20</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E117" s="4" t="s">
         <v>51</v>
@@ -3208,10 +3211,10 @@
         <v>21</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E118" s="4" t="s">
         <v>51</v>
@@ -3225,10 +3228,10 @@
         <v>20</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E119" s="4" t="s">
         <v>51</v>
@@ -3242,10 +3245,10 @@
         <v>5</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E120" s="4" t="s">
         <v>51</v>
@@ -3253,16 +3256,16 @@
     </row>
     <row r="121" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B121" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E121" s="4" t="s">
         <v>51</v>
@@ -3271,16 +3274,16 @@
     </row>
     <row r="122" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B122" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E122" s="4" t="s">
         <v>51</v>
@@ -3294,10 +3297,10 @@
         <v>23</v>
       </c>
       <c r="C123" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D123" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="D123" s="3" t="s">
-        <v>85</v>
       </c>
       <c r="E123" s="4" t="s">
         <v>51</v>
@@ -3311,10 +3314,10 @@
         <v>24</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E124" s="4" t="s">
         <v>51</v>
@@ -3328,10 +3331,10 @@
         <v>25</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E125" s="4" t="s">
         <v>51</v>
@@ -3345,10 +3348,10 @@
         <v>26</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E126" s="4" t="s">
         <v>51</v>
@@ -3362,10 +3365,10 @@
         <v>24</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D127" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E127" s="4" t="s">
         <v>51</v>
@@ -3379,10 +3382,10 @@
         <v>27</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E128" s="4" t="s">
         <v>51</v>
@@ -3396,10 +3399,10 @@
         <v>24</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E129" s="4" t="s">
         <v>51</v>
@@ -3413,10 +3416,10 @@
         <v>10</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E130" s="4" t="s">
         <v>51</v>
@@ -3430,10 +3433,10 @@
         <v>28</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E131" s="4" t="s">
         <v>51</v>
@@ -3447,10 +3450,10 @@
         <v>29</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E132" s="4" t="s">
         <v>51</v>
@@ -3464,10 +3467,10 @@
         <v>6</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E133" s="4" t="s">
         <v>51</v>
@@ -3481,10 +3484,10 @@
         <v>30</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E134" s="4" t="s">
         <v>51</v>
@@ -3498,10 +3501,10 @@
         <v>31</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E135" s="4" t="s">
         <v>51</v>
@@ -3516,10 +3519,10 @@
         <v>12</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D136" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E136" s="4" t="s">
         <v>51</v>
@@ -3534,10 +3537,10 @@
         <v>32</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E137" s="4" t="s">
         <v>51</v>
@@ -3545,33 +3548,33 @@
     </row>
     <row r="138" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="12" t="s">
-        <v>67</v>
+        <v>136</v>
       </c>
       <c r="B138" s="8" t="s">
         <v>33</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E138" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A139" s="13" t="s">
-        <v>67</v>
+      <c r="A139" s="16" t="s">
+        <v>136</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E139" s="4" t="s">
         <v>51</v>
@@ -3579,17 +3582,17 @@
       <c r="F139" s="10"/>
     </row>
     <row r="140" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A140" s="13" t="s">
-        <v>67</v>
+      <c r="A140" s="16" t="s">
+        <v>136</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E140" s="4" t="s">
         <v>51</v>
@@ -3597,16 +3600,16 @@
     </row>
     <row r="141" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E141" s="4" t="s">
         <v>51</v>
@@ -3614,16 +3617,16 @@
     </row>
     <row r="142" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A142" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B142" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E142" s="4" t="s">
         <v>51</v>
@@ -3631,16 +3634,16 @@
     </row>
     <row r="143" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D143" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E143" s="4" t="s">
         <v>51</v>
@@ -3648,16 +3651,16 @@
     </row>
     <row r="144" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B144" s="8" t="s">
         <v>38</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D144" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E144" s="4" t="s">
         <v>51</v>
@@ -3665,16 +3668,16 @@
     </row>
     <row r="145" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A145" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B145" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C145" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D145" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E145" s="4" t="s">
         <v>51</v>
@@ -3682,16 +3685,16 @@
     </row>
     <row r="146" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A146" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B146" s="8" t="s">
         <v>39</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D146" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E146" s="4" t="s">
         <v>51</v>
@@ -3699,16 +3702,16 @@
     </row>
     <row r="147" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A147" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B147" s="8" t="s">
         <v>40</v>
       </c>
       <c r="C147" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D147" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E147" s="4" t="s">
         <v>51</v>
@@ -3722,10 +3725,10 @@
         <v>41</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D148" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E148" s="4" t="s">
         <v>51</v>
@@ -3733,16 +3736,16 @@
     </row>
     <row r="149" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A149" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B149" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D149" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E149" s="4" t="s">
         <v>51</v>
@@ -3750,16 +3753,16 @@
     </row>
     <row r="150" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A150" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B150" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D150" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E150" s="4" t="s">
         <v>51</v>
@@ -3767,16 +3770,16 @@
     </row>
     <row r="151" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A151" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B151" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D151" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E151" s="4" t="s">
         <v>51</v>
@@ -3784,16 +3787,16 @@
     </row>
     <row r="152" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A152" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B152" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C152" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D152" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E152" s="4" t="s">
         <v>51</v>
@@ -3807,10 +3810,10 @@
         <v>20</v>
       </c>
       <c r="C153" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D153" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E153" s="4" t="s">
         <v>51</v>
@@ -3818,16 +3821,16 @@
     </row>
     <row r="154" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A154" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B154" s="8" t="s">
         <v>42</v>
       </c>
       <c r="C154" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D154" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E154" s="4" t="s">
         <v>51</v>
@@ -3835,16 +3838,16 @@
     </row>
     <row r="155" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A155" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B155" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E155" s="4" t="s">
         <v>51</v>
@@ -3852,16 +3855,16 @@
     </row>
     <row r="156" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A156" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E156" s="4" t="s">
         <v>51</v>
@@ -3869,16 +3872,16 @@
     </row>
     <row r="157" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A157" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B157" s="8" t="s">
         <v>45</v>
       </c>
       <c r="C157" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D157" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E157" s="4" t="s">
         <v>51</v>
@@ -3893,10 +3896,10 @@
         <v>11</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E158" s="4" t="s">
         <v>51</v>
@@ -3910,10 +3913,10 @@
         <v>46</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E159" s="4" t="s">
         <v>51</v>
@@ -3927,10 +3930,10 @@
         <v>47</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E160" s="4" t="s">
         <v>51</v>
@@ -3938,16 +3941,16 @@
     </row>
     <row r="161" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A161" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B161" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E161" s="4" t="s">
         <v>51</v>
@@ -3955,16 +3958,16 @@
     </row>
     <row r="162" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A162" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B162" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E162" s="4" t="s">
         <v>51</v>
@@ -3972,16 +3975,16 @@
     </row>
     <row r="163" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A163" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E163" s="4" t="s">
         <v>51</v>
@@ -3989,16 +3992,16 @@
     </row>
     <row r="164" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A164" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B164" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E164" s="4" t="s">
         <v>51</v>
@@ -4006,16 +4009,16 @@
     </row>
     <row r="165" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A165" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B165" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C165" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D165" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E165" s="4" t="s">
         <v>51</v>
@@ -4023,16 +4026,16 @@
     </row>
     <row r="166" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A166" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E166" s="4" t="s">
         <v>51</v>
@@ -4046,10 +4049,10 @@
         <v>25</v>
       </c>
       <c r="C167" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D167" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E167" s="4" t="s">
         <v>51</v>
@@ -4063,10 +4066,10 @@
         <v>17</v>
       </c>
       <c r="C168" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D168" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E168" s="4" t="s">
         <v>51</v>
@@ -4080,10 +4083,10 @@
         <v>18</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E169" s="4" t="s">
         <v>51</v>
@@ -4097,10 +4100,10 @@
         <v>3</v>
       </c>
       <c r="C170" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D170" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E170" s="5" t="s">
         <v>52</v>
@@ -4114,10 +4117,10 @@
         <v>4</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E171" s="5" t="s">
         <v>52</v>
@@ -4131,10 +4134,10 @@
         <v>19</v>
       </c>
       <c r="C172" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D172" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E172" s="5" t="s">
         <v>52</v>
@@ -4148,10 +4151,10 @@
         <v>20</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E173" s="5" t="s">
         <v>52</v>
@@ -4165,10 +4168,10 @@
         <v>21</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E174" s="5" t="s">
         <v>52</v>
@@ -4182,10 +4185,10 @@
         <v>20</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E175" s="5" t="s">
         <v>52</v>
@@ -4199,10 +4202,10 @@
         <v>5</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E176" s="5" t="s">
         <v>52</v>
@@ -4210,16 +4213,16 @@
     </row>
     <row r="177" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A177" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B177" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C177" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D177" s="8" t="s">
         <v>114</v>
-      </c>
-      <c r="D177" s="8" t="s">
-        <v>115</v>
       </c>
       <c r="E177" s="5" t="s">
         <v>52</v>
@@ -4228,16 +4231,16 @@
     </row>
     <row r="178" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A178" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B178" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C178" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D178" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E178" s="5" t="s">
         <v>52</v>
@@ -4251,10 +4254,10 @@
         <v>23</v>
       </c>
       <c r="C179" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D179" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E179" s="5" t="s">
         <v>52</v>
@@ -4268,10 +4271,10 @@
         <v>24</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E180" s="5" t="s">
         <v>52</v>
@@ -4285,10 +4288,10 @@
         <v>25</v>
       </c>
       <c r="C181" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D181" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E181" s="5" t="s">
         <v>52</v>
@@ -4302,10 +4305,10 @@
         <v>26</v>
       </c>
       <c r="C182" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D182" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E182" s="5" t="s">
         <v>52</v>
@@ -4319,10 +4322,10 @@
         <v>24</v>
       </c>
       <c r="C183" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D183" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E183" s="5" t="s">
         <v>52</v>
@@ -4336,10 +4339,10 @@
         <v>27</v>
       </c>
       <c r="C184" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D184" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E184" s="5" t="s">
         <v>52</v>
@@ -4353,10 +4356,10 @@
         <v>24</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E185" s="5" t="s">
         <v>52</v>
@@ -4370,10 +4373,10 @@
         <v>10</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E186" s="5" t="s">
         <v>52</v>
@@ -4387,10 +4390,10 @@
         <v>28</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E187" s="5" t="s">
         <v>52</v>
@@ -4404,10 +4407,10 @@
         <v>29</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E188" s="5" t="s">
         <v>52</v>
@@ -4421,10 +4424,10 @@
         <v>6</v>
       </c>
       <c r="C189" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D189" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E189" s="5" t="s">
         <v>52</v>
@@ -4438,10 +4441,10 @@
         <v>30</v>
       </c>
       <c r="C190" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D190" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E190" s="5" t="s">
         <v>52</v>
@@ -4455,10 +4458,10 @@
         <v>31</v>
       </c>
       <c r="C191" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D191" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E191" s="5" t="s">
         <v>52</v>
@@ -4473,10 +4476,10 @@
         <v>12</v>
       </c>
       <c r="C192" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D192" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E192" s="5" t="s">
         <v>52</v>
@@ -4491,10 +4494,10 @@
         <v>32</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E193" s="5" t="s">
         <v>52</v>
@@ -4502,16 +4505,16 @@
     </row>
     <row r="194" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A194" s="12" t="s">
-        <v>67</v>
+        <v>136</v>
       </c>
       <c r="B194" s="8" t="s">
         <v>33</v>
       </c>
       <c r="C194" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D194" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E194" s="5" t="s">
         <v>52</v>
@@ -4519,16 +4522,16 @@
     </row>
     <row r="195" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A195" s="12" t="s">
-        <v>67</v>
+        <v>136</v>
       </c>
       <c r="B195" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C195" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D195" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E195" s="5" t="s">
         <v>52</v>
@@ -4537,16 +4540,16 @@
     </row>
     <row r="196" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A196" s="12" t="s">
-        <v>67</v>
+        <v>136</v>
       </c>
       <c r="B196" s="8" t="s">
         <v>35</v>
       </c>
       <c r="C196" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D196" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E196" s="5" t="s">
         <v>52</v>
@@ -4554,16 +4557,16 @@
     </row>
     <row r="197" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A197" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B197" s="8" t="s">
         <v>36</v>
       </c>
       <c r="C197" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D197" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E197" s="5" t="s">
         <v>52</v>
@@ -4571,16 +4574,16 @@
     </row>
     <row r="198" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A198" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B198" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E198" s="5" t="s">
         <v>52</v>
@@ -4588,16 +4591,16 @@
     </row>
     <row r="199" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A199" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B199" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C199" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D199" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E199" s="5" t="s">
         <v>52</v>
@@ -4605,16 +4608,16 @@
     </row>
     <row r="200" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A200" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B200" s="8" t="s">
         <v>38</v>
       </c>
       <c r="C200" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D200" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E200" s="5" t="s">
         <v>52</v>
@@ -4622,16 +4625,16 @@
     </row>
     <row r="201" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A201" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B201" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C201" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D201" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E201" s="5" t="s">
         <v>52</v>
@@ -4639,16 +4642,16 @@
     </row>
     <row r="202" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A202" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B202" s="8" t="s">
         <v>39</v>
       </c>
       <c r="C202" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D202" s="8" t="s">
         <v>115</v>
-      </c>
-      <c r="D202" s="8" t="s">
-        <v>116</v>
       </c>
       <c r="E202" s="5" t="s">
         <v>52</v>
@@ -4656,16 +4659,16 @@
     </row>
     <row r="203" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A203" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B203" s="8" t="s">
         <v>40</v>
       </c>
       <c r="C203" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D203" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E203" s="5" t="s">
         <v>52</v>
@@ -4679,10 +4682,10 @@
         <v>41</v>
       </c>
       <c r="C204" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D204" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E204" s="5" t="s">
         <v>52</v>
@@ -4690,16 +4693,16 @@
     </row>
     <row r="205" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A205" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B205" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C205" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D205" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E205" s="5" t="s">
         <v>52</v>
@@ -4707,16 +4710,16 @@
     </row>
     <row r="206" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A206" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B206" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C206" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D206" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E206" s="5" t="s">
         <v>52</v>
@@ -4724,16 +4727,16 @@
     </row>
     <row r="207" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A207" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B207" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C207" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D207" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E207" s="5" t="s">
         <v>52</v>
@@ -4741,16 +4744,16 @@
     </row>
     <row r="208" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A208" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B208" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C208" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D208" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E208" s="5" t="s">
         <v>52</v>
@@ -4764,10 +4767,10 @@
         <v>20</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D209" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E209" s="5" t="s">
         <v>52</v>
@@ -4775,16 +4778,16 @@
     </row>
     <row r="210" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A210" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B210" s="8" t="s">
         <v>42</v>
       </c>
       <c r="C210" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D210" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E210" s="5" t="s">
         <v>52</v>
@@ -4792,16 +4795,16 @@
     </row>
     <row r="211" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A211" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B211" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D211" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E211" s="5" t="s">
         <v>52</v>
@@ -4809,16 +4812,16 @@
     </row>
     <row r="212" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A212" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B212" s="8" t="s">
         <v>44</v>
       </c>
       <c r="C212" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D212" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E212" s="5" t="s">
         <v>52</v>
@@ -4826,16 +4829,16 @@
     </row>
     <row r="213" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A213" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B213" s="8" t="s">
         <v>45</v>
       </c>
       <c r="C213" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D213" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E213" s="5" t="s">
         <v>52</v>
@@ -4850,10 +4853,10 @@
         <v>11</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D214" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E214" s="5" t="s">
         <v>52</v>
@@ -4867,10 +4870,10 @@
         <v>46</v>
       </c>
       <c r="C215" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D215" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E215" s="5" t="s">
         <v>52</v>
@@ -4884,10 +4887,10 @@
         <v>47</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D216" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E216" s="5" t="s">
         <v>52</v>
@@ -4895,16 +4898,16 @@
     </row>
     <row r="217" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A217" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B217" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D217" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E217" s="5" t="s">
         <v>52</v>
@@ -4912,16 +4915,16 @@
     </row>
     <row r="218" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A218" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B218" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D218" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E218" s="5" t="s">
         <v>52</v>
@@ -4929,16 +4932,16 @@
     </row>
     <row r="219" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A219" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B219" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C219" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D219" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E219" s="5" t="s">
         <v>52</v>
@@ -4946,16 +4949,16 @@
     </row>
     <row r="220" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A220" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B220" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C220" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D220" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E220" s="5" t="s">
         <v>52</v>
@@ -4963,16 +4966,16 @@
     </row>
     <row r="221" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A221" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B221" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C221" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D221" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E221" s="5" t="s">
         <v>52</v>
@@ -4980,16 +4983,16 @@
     </row>
     <row r="222" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A222" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B222" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D222" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E222" s="5" t="s">
         <v>52</v>
@@ -5003,10 +5006,10 @@
         <v>25</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D223" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E223" s="5" t="s">
         <v>52</v>
@@ -5020,10 +5023,10 @@
         <v>17</v>
       </c>
       <c r="C224" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D224" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E224" s="5" t="s">
         <v>52</v>
@@ -5037,10 +5040,10 @@
         <v>18</v>
       </c>
       <c r="C225" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D225" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E225" s="5" t="s">
         <v>52</v>
@@ -5048,7 +5051,7 @@
     </row>
     <row r="226" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A226" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B226" s="12"/>
       <c r="C226" s="12"/>
@@ -5059,7 +5062,7 @@
     </row>
     <row r="227" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A227" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B227" s="12"/>
       <c r="C227" s="12"/>
@@ -5070,7 +5073,7 @@
     </row>
     <row r="228" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A228" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B228" s="12"/>
       <c r="C228" s="12"/>
@@ -5081,7 +5084,7 @@
     </row>
     <row r="229" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A229" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B229" s="12"/>
       <c r="C229" s="12"/>
